--- a/php/mealmemo4.xlsx
+++ b/php/mealmemo4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/php/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2F808-1355-564C-A1DC-EB425A855C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A2C5B-850D-A345-9296-0F8BE9D6EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1500" windowWidth="24060" windowHeight="14200" activeTab="2" xr2:uid="{39199148-6A47-6741-8274-EE756B5CE3CA}"/>
   </bookViews>
@@ -2353,33 +2353,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2409,6 +2382,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3378,19 +3378,19 @@
       <c r="C78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
@@ -3515,18 +3515,18 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="C106" s="19"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="C107" s="19"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" s="4" customFormat="1">
-      <c r="C108" s="22"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
@@ -3561,17 +3561,17 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="C212" s="19" t="s">
+      <c r="C212" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3581,20 +3581,20 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="C215" s="19"/>
+      <c r="C215" s="10"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="C216" s="19"/>
+      <c r="C216" s="10"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="22"/>
+      <c r="C217" s="13"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="C218" s="19"/>
+      <c r="C218" s="10"/>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" t="s">
@@ -3664,7 +3664,7 @@
       <c r="E298" s="4"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3914,23 +3914,23 @@
       </c>
     </row>
     <row r="354" spans="1:21">
-      <c r="C354" s="19"/>
+      <c r="C354" s="10"/>
     </row>
     <row r="355" spans="1:21">
-      <c r="C355" s="19"/>
+      <c r="C355" s="10"/>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="22"/>
+      <c r="C356" s="13"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:21">
-      <c r="C357" s="19"/>
+      <c r="C357" s="10"/>
     </row>
     <row r="358" spans="1:21">
-      <c r="C358" s="19"/>
+      <c r="C358" s="10"/>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" t="s">
@@ -3964,12 +3964,12 @@
       <c r="U362" s="4"/>
     </row>
     <row r="363" spans="1:21">
-      <c r="C363" s="19" t="s">
+      <c r="C363" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="366" spans="1:21">
-      <c r="C366" s="19" t="s">
+      <c r="C366" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F366" s="4"/>
@@ -3977,13 +3977,13 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="O366" s="23" t="s">
+      <c r="O366" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="P366" s="21"/>
-      <c r="Q366" s="21"/>
-      <c r="R366" s="21"/>
-      <c r="S366" s="21"/>
+      <c r="P366" s="12"/>
+      <c r="Q366" s="12"/>
+      <c r="R366" s="12"/>
+      <c r="S366" s="12"/>
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:21">
@@ -4000,7 +4000,7 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:21">
-      <c r="C368" s="24" t="s">
+      <c r="C368" s="15" t="s">
         <v>224</v>
       </c>
       <c r="O368" s="5" t="s">
@@ -4013,22 +4013,22 @@
       <c r="T368" s="4"/>
     </row>
     <row r="369" spans="3:9">
-      <c r="C369" s="24" t="s">
+      <c r="C369" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="370" spans="3:9">
-      <c r="C370" s="24" t="s">
+      <c r="C370" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="372" spans="3:9">
-      <c r="C372" s="24" t="s">
+      <c r="C372" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="374" spans="3:9">
-      <c r="C374" s="24" t="s">
+      <c r="C374" s="15" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
     </row>
     <row r="401" spans="3:10">
-      <c r="C401" s="24" t="s">
+      <c r="C401" s="15" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="424" spans="3:3">
-      <c r="C424" s="24" t="s">
+      <c r="C424" s="15" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4299,10 +4299,10 @@
   <dimension ref="A6:X486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T289" sqref="T289"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -4900,835 +4900,835 @@
     </row>
     <row r="211" spans="3:24" ht="21" thickBot="1"/>
     <row r="212" spans="3:24">
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="9"/>
-      <c r="M212" s="9"/>
-      <c r="N212" s="9"/>
-      <c r="O212" s="9"/>
-      <c r="P212" s="9"/>
-      <c r="Q212" s="9"/>
-      <c r="R212" s="9"/>
-      <c r="S212" s="9"/>
-      <c r="T212" s="9"/>
-      <c r="U212" s="9"/>
-      <c r="V212" s="9"/>
-      <c r="W212" s="9"/>
-      <c r="X212" s="10"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
+      <c r="N212" s="20"/>
+      <c r="O212" s="20"/>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="20"/>
+      <c r="U212" s="20"/>
+      <c r="V212" s="20"/>
+      <c r="W212" s="20"/>
+      <c r="X212" s="21"/>
     </row>
     <row r="213" spans="3:24">
-      <c r="C213" s="11"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
-      <c r="S213" s="12"/>
-      <c r="T213" s="12"/>
-      <c r="U213" s="12"/>
-      <c r="V213" s="12"/>
-      <c r="W213" s="12"/>
-      <c r="X213" s="13"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="23"/>
+      <c r="K213" s="23"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="23"/>
+      <c r="N213" s="23"/>
+      <c r="O213" s="23"/>
+      <c r="P213" s="23"/>
+      <c r="Q213" s="23"/>
+      <c r="R213" s="23"/>
+      <c r="S213" s="23"/>
+      <c r="T213" s="23"/>
+      <c r="U213" s="23"/>
+      <c r="V213" s="23"/>
+      <c r="W213" s="23"/>
+      <c r="X213" s="24"/>
     </row>
     <row r="214" spans="3:24">
-      <c r="C214" s="11"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
-      <c r="J214" s="12"/>
-      <c r="K214" s="12"/>
-      <c r="L214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
-      <c r="O214" s="12"/>
-      <c r="P214" s="12"/>
-      <c r="Q214" s="12"/>
-      <c r="R214" s="12"/>
-      <c r="S214" s="12"/>
-      <c r="T214" s="12"/>
-      <c r="U214" s="12"/>
-      <c r="V214" s="12"/>
-      <c r="W214" s="12"/>
-      <c r="X214" s="13"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
+      <c r="H214" s="23"/>
+      <c r="I214" s="23"/>
+      <c r="J214" s="23"/>
+      <c r="K214" s="23"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="23"/>
+      <c r="N214" s="23"/>
+      <c r="O214" s="23"/>
+      <c r="P214" s="23"/>
+      <c r="Q214" s="23"/>
+      <c r="R214" s="23"/>
+      <c r="S214" s="23"/>
+      <c r="T214" s="23"/>
+      <c r="U214" s="23"/>
+      <c r="V214" s="23"/>
+      <c r="W214" s="23"/>
+      <c r="X214" s="24"/>
     </row>
     <row r="215" spans="3:24">
-      <c r="C215" s="11"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
-      <c r="S215" s="12"/>
-      <c r="T215" s="12"/>
-      <c r="U215" s="12"/>
-      <c r="V215" s="12"/>
-      <c r="W215" s="12"/>
-      <c r="X215" s="13"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="23"/>
+      <c r="K215" s="23"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="23"/>
+      <c r="N215" s="23"/>
+      <c r="O215" s="23"/>
+      <c r="P215" s="23"/>
+      <c r="Q215" s="23"/>
+      <c r="R215" s="23"/>
+      <c r="S215" s="23"/>
+      <c r="T215" s="23"/>
+      <c r="U215" s="23"/>
+      <c r="V215" s="23"/>
+      <c r="W215" s="23"/>
+      <c r="X215" s="24"/>
     </row>
     <row r="216" spans="3:24">
-      <c r="C216" s="11"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
-      <c r="S216" s="12"/>
-      <c r="T216" s="12"/>
-      <c r="U216" s="12"/>
-      <c r="V216" s="12"/>
-      <c r="W216" s="12"/>
-      <c r="X216" s="13"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="23"/>
+      <c r="K216" s="23"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="23"/>
+      <c r="N216" s="23"/>
+      <c r="O216" s="23"/>
+      <c r="P216" s="23"/>
+      <c r="Q216" s="23"/>
+      <c r="R216" s="23"/>
+      <c r="S216" s="23"/>
+      <c r="T216" s="23"/>
+      <c r="U216" s="23"/>
+      <c r="V216" s="23"/>
+      <c r="W216" s="23"/>
+      <c r="X216" s="24"/>
     </row>
     <row r="217" spans="3:24">
-      <c r="C217" s="11"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
-      <c r="O217" s="12"/>
-      <c r="P217" s="12"/>
-      <c r="Q217" s="12"/>
-      <c r="R217" s="12"/>
-      <c r="S217" s="12"/>
-      <c r="T217" s="12"/>
-      <c r="U217" s="12"/>
-      <c r="V217" s="12"/>
-      <c r="W217" s="12"/>
-      <c r="X217" s="13"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="23"/>
+      <c r="N217" s="23"/>
+      <c r="O217" s="23"/>
+      <c r="P217" s="23"/>
+      <c r="Q217" s="23"/>
+      <c r="R217" s="23"/>
+      <c r="S217" s="23"/>
+      <c r="T217" s="23"/>
+      <c r="U217" s="23"/>
+      <c r="V217" s="23"/>
+      <c r="W217" s="23"/>
+      <c r="X217" s="24"/>
     </row>
     <row r="218" spans="3:24">
-      <c r="C218" s="11"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="Q218" s="12"/>
-      <c r="R218" s="12"/>
-      <c r="S218" s="12"/>
-      <c r="T218" s="12"/>
-      <c r="U218" s="12"/>
-      <c r="V218" s="12"/>
-      <c r="W218" s="12"/>
-      <c r="X218" s="13"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
+      <c r="H218" s="23"/>
+      <c r="I218" s="23"/>
+      <c r="J218" s="23"/>
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="23"/>
+      <c r="O218" s="23"/>
+      <c r="P218" s="23"/>
+      <c r="Q218" s="23"/>
+      <c r="R218" s="23"/>
+      <c r="S218" s="23"/>
+      <c r="T218" s="23"/>
+      <c r="U218" s="23"/>
+      <c r="V218" s="23"/>
+      <c r="W218" s="23"/>
+      <c r="X218" s="24"/>
     </row>
     <row r="219" spans="3:24">
-      <c r="C219" s="11"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
-      <c r="O219" s="12"/>
-      <c r="P219" s="12"/>
-      <c r="Q219" s="12"/>
-      <c r="R219" s="12"/>
-      <c r="S219" s="12"/>
-      <c r="T219" s="12"/>
-      <c r="U219" s="12"/>
-      <c r="V219" s="12"/>
-      <c r="W219" s="12"/>
-      <c r="X219" s="13"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="23"/>
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="23"/>
+      <c r="N219" s="23"/>
+      <c r="O219" s="23"/>
+      <c r="P219" s="23"/>
+      <c r="Q219" s="23"/>
+      <c r="R219" s="23"/>
+      <c r="S219" s="23"/>
+      <c r="T219" s="23"/>
+      <c r="U219" s="23"/>
+      <c r="V219" s="23"/>
+      <c r="W219" s="23"/>
+      <c r="X219" s="24"/>
     </row>
     <row r="220" spans="3:24">
-      <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
-      <c r="S220" s="12"/>
-      <c r="T220" s="12"/>
-      <c r="U220" s="12"/>
-      <c r="V220" s="12"/>
-      <c r="W220" s="12"/>
-      <c r="X220" s="13"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="23"/>
+      <c r="O220" s="23"/>
+      <c r="P220" s="23"/>
+      <c r="Q220" s="23"/>
+      <c r="R220" s="23"/>
+      <c r="S220" s="23"/>
+      <c r="T220" s="23"/>
+      <c r="U220" s="23"/>
+      <c r="V220" s="23"/>
+      <c r="W220" s="23"/>
+      <c r="X220" s="24"/>
     </row>
     <row r="221" spans="3:24">
-      <c r="C221" s="11"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
-      <c r="O221" s="12"/>
-      <c r="P221" s="12"/>
-      <c r="Q221" s="12"/>
-      <c r="R221" s="12"/>
-      <c r="S221" s="12"/>
-      <c r="T221" s="12"/>
-      <c r="U221" s="12"/>
-      <c r="V221" s="12"/>
-      <c r="W221" s="12"/>
-      <c r="X221" s="13"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="23"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23"/>
+      <c r="L221" s="23"/>
+      <c r="M221" s="23"/>
+      <c r="N221" s="23"/>
+      <c r="O221" s="23"/>
+      <c r="P221" s="23"/>
+      <c r="Q221" s="23"/>
+      <c r="R221" s="23"/>
+      <c r="S221" s="23"/>
+      <c r="T221" s="23"/>
+      <c r="U221" s="23"/>
+      <c r="V221" s="23"/>
+      <c r="W221" s="23"/>
+      <c r="X221" s="24"/>
     </row>
     <row r="222" spans="3:24">
-      <c r="C222" s="11"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-      <c r="Q222" s="12"/>
-      <c r="R222" s="12"/>
-      <c r="S222" s="12"/>
-      <c r="T222" s="12"/>
-      <c r="U222" s="12"/>
-      <c r="V222" s="12"/>
-      <c r="W222" s="12"/>
-      <c r="X222" s="13"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="23"/>
+      <c r="L222" s="23"/>
+      <c r="M222" s="23"/>
+      <c r="N222" s="23"/>
+      <c r="O222" s="23"/>
+      <c r="P222" s="23"/>
+      <c r="Q222" s="23"/>
+      <c r="R222" s="23"/>
+      <c r="S222" s="23"/>
+      <c r="T222" s="23"/>
+      <c r="U222" s="23"/>
+      <c r="V222" s="23"/>
+      <c r="W222" s="23"/>
+      <c r="X222" s="24"/>
     </row>
     <row r="223" spans="3:24">
-      <c r="C223" s="11"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
-      <c r="P223" s="12"/>
-      <c r="Q223" s="12"/>
-      <c r="R223" s="12"/>
-      <c r="S223" s="12"/>
-      <c r="T223" s="12"/>
-      <c r="U223" s="12"/>
-      <c r="V223" s="12"/>
-      <c r="W223" s="12"/>
-      <c r="X223" s="13"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="23"/>
+      <c r="K223" s="23"/>
+      <c r="L223" s="23"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="23"/>
+      <c r="O223" s="23"/>
+      <c r="P223" s="23"/>
+      <c r="Q223" s="23"/>
+      <c r="R223" s="23"/>
+      <c r="S223" s="23"/>
+      <c r="T223" s="23"/>
+      <c r="U223" s="23"/>
+      <c r="V223" s="23"/>
+      <c r="W223" s="23"/>
+      <c r="X223" s="24"/>
     </row>
     <row r="224" spans="3:24">
-      <c r="C224" s="11"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-      <c r="Q224" s="12"/>
-      <c r="R224" s="12"/>
-      <c r="S224" s="12"/>
-      <c r="T224" s="12"/>
-      <c r="U224" s="12"/>
-      <c r="V224" s="12"/>
-      <c r="W224" s="12"/>
-      <c r="X224" s="13"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="23"/>
+      <c r="H224" s="23"/>
+      <c r="I224" s="23"/>
+      <c r="J224" s="23"/>
+      <c r="K224" s="23"/>
+      <c r="L224" s="23"/>
+      <c r="M224" s="23"/>
+      <c r="N224" s="23"/>
+      <c r="O224" s="23"/>
+      <c r="P224" s="23"/>
+      <c r="Q224" s="23"/>
+      <c r="R224" s="23"/>
+      <c r="S224" s="23"/>
+      <c r="T224" s="23"/>
+      <c r="U224" s="23"/>
+      <c r="V224" s="23"/>
+      <c r="W224" s="23"/>
+      <c r="X224" s="24"/>
     </row>
     <row r="225" spans="3:24">
-      <c r="C225" s="11"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
-      <c r="R225" s="12"/>
-      <c r="S225" s="12"/>
-      <c r="T225" s="12"/>
-      <c r="U225" s="12"/>
-      <c r="V225" s="12"/>
-      <c r="W225" s="12"/>
-      <c r="X225" s="13"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="23"/>
+      <c r="H225" s="23"/>
+      <c r="I225" s="23"/>
+      <c r="J225" s="23"/>
+      <c r="K225" s="23"/>
+      <c r="L225" s="23"/>
+      <c r="M225" s="23"/>
+      <c r="N225" s="23"/>
+      <c r="O225" s="23"/>
+      <c r="P225" s="23"/>
+      <c r="Q225" s="23"/>
+      <c r="R225" s="23"/>
+      <c r="S225" s="23"/>
+      <c r="T225" s="23"/>
+      <c r="U225" s="23"/>
+      <c r="V225" s="23"/>
+      <c r="W225" s="23"/>
+      <c r="X225" s="24"/>
     </row>
     <row r="226" spans="3:24">
-      <c r="C226" s="11"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-      <c r="Q226" s="12"/>
-      <c r="R226" s="12"/>
-      <c r="S226" s="12"/>
-      <c r="T226" s="12"/>
-      <c r="U226" s="12"/>
-      <c r="V226" s="12"/>
-      <c r="W226" s="12"/>
-      <c r="X226" s="13"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23"/>
+      <c r="H226" s="23"/>
+      <c r="I226" s="23"/>
+      <c r="J226" s="23"/>
+      <c r="K226" s="23"/>
+      <c r="L226" s="23"/>
+      <c r="M226" s="23"/>
+      <c r="N226" s="23"/>
+      <c r="O226" s="23"/>
+      <c r="P226" s="23"/>
+      <c r="Q226" s="23"/>
+      <c r="R226" s="23"/>
+      <c r="S226" s="23"/>
+      <c r="T226" s="23"/>
+      <c r="U226" s="23"/>
+      <c r="V226" s="23"/>
+      <c r="W226" s="23"/>
+      <c r="X226" s="24"/>
     </row>
     <row r="227" spans="3:24">
-      <c r="C227" s="11"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
-      <c r="O227" s="12"/>
-      <c r="P227" s="12"/>
-      <c r="Q227" s="12"/>
-      <c r="R227" s="12"/>
-      <c r="S227" s="12"/>
-      <c r="T227" s="12"/>
-      <c r="U227" s="12"/>
-      <c r="V227" s="12"/>
-      <c r="W227" s="12"/>
-      <c r="X227" s="13"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="23"/>
+      <c r="J227" s="23"/>
+      <c r="K227" s="23"/>
+      <c r="L227" s="23"/>
+      <c r="M227" s="23"/>
+      <c r="N227" s="23"/>
+      <c r="O227" s="23"/>
+      <c r="P227" s="23"/>
+      <c r="Q227" s="23"/>
+      <c r="R227" s="23"/>
+      <c r="S227" s="23"/>
+      <c r="T227" s="23"/>
+      <c r="U227" s="23"/>
+      <c r="V227" s="23"/>
+      <c r="W227" s="23"/>
+      <c r="X227" s="24"/>
     </row>
     <row r="228" spans="3:24">
-      <c r="C228" s="11"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
-      <c r="P228" s="12"/>
-      <c r="Q228" s="12"/>
-      <c r="R228" s="12"/>
-      <c r="S228" s="12"/>
-      <c r="T228" s="12"/>
-      <c r="U228" s="12"/>
-      <c r="V228" s="12"/>
-      <c r="W228" s="12"/>
-      <c r="X228" s="13"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="23"/>
+      <c r="K228" s="23"/>
+      <c r="L228" s="23"/>
+      <c r="M228" s="23"/>
+      <c r="N228" s="23"/>
+      <c r="O228" s="23"/>
+      <c r="P228" s="23"/>
+      <c r="Q228" s="23"/>
+      <c r="R228" s="23"/>
+      <c r="S228" s="23"/>
+      <c r="T228" s="23"/>
+      <c r="U228" s="23"/>
+      <c r="V228" s="23"/>
+      <c r="W228" s="23"/>
+      <c r="X228" s="24"/>
     </row>
     <row r="229" spans="3:24">
-      <c r="C229" s="11"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
-      <c r="O229" s="12"/>
-      <c r="P229" s="12"/>
-      <c r="Q229" s="12"/>
-      <c r="R229" s="12"/>
-      <c r="S229" s="12"/>
-      <c r="T229" s="12"/>
-      <c r="U229" s="12"/>
-      <c r="V229" s="12"/>
-      <c r="W229" s="12"/>
-      <c r="X229" s="13"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="23"/>
+      <c r="O229" s="23"/>
+      <c r="P229" s="23"/>
+      <c r="Q229" s="23"/>
+      <c r="R229" s="23"/>
+      <c r="S229" s="23"/>
+      <c r="T229" s="23"/>
+      <c r="U229" s="23"/>
+      <c r="V229" s="23"/>
+      <c r="W229" s="23"/>
+      <c r="X229" s="24"/>
     </row>
     <row r="230" spans="3:24">
-      <c r="C230" s="11"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
-      <c r="P230" s="12"/>
-      <c r="Q230" s="12"/>
-      <c r="R230" s="12"/>
-      <c r="S230" s="12"/>
-      <c r="T230" s="12"/>
-      <c r="U230" s="12"/>
-      <c r="V230" s="12"/>
-      <c r="W230" s="12"/>
-      <c r="X230" s="13"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="23"/>
+      <c r="N230" s="23"/>
+      <c r="O230" s="23"/>
+      <c r="P230" s="23"/>
+      <c r="Q230" s="23"/>
+      <c r="R230" s="23"/>
+      <c r="S230" s="23"/>
+      <c r="T230" s="23"/>
+      <c r="U230" s="23"/>
+      <c r="V230" s="23"/>
+      <c r="W230" s="23"/>
+      <c r="X230" s="24"/>
     </row>
     <row r="231" spans="3:24">
-      <c r="C231" s="11"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
-      <c r="P231" s="12"/>
-      <c r="Q231" s="12"/>
-      <c r="R231" s="12"/>
-      <c r="S231" s="12"/>
-      <c r="T231" s="12"/>
-      <c r="U231" s="12"/>
-      <c r="V231" s="12"/>
-      <c r="W231" s="12"/>
-      <c r="X231" s="13"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="23"/>
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="23"/>
+      <c r="N231" s="23"/>
+      <c r="O231" s="23"/>
+      <c r="P231" s="23"/>
+      <c r="Q231" s="23"/>
+      <c r="R231" s="23"/>
+      <c r="S231" s="23"/>
+      <c r="T231" s="23"/>
+      <c r="U231" s="23"/>
+      <c r="V231" s="23"/>
+      <c r="W231" s="23"/>
+      <c r="X231" s="24"/>
     </row>
     <row r="232" spans="3:24">
-      <c r="C232" s="11"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
-      <c r="P232" s="12"/>
-      <c r="Q232" s="12"/>
-      <c r="R232" s="12"/>
-      <c r="S232" s="12"/>
-      <c r="T232" s="12"/>
-      <c r="U232" s="12"/>
-      <c r="V232" s="12"/>
-      <c r="W232" s="12"/>
-      <c r="X232" s="13"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="23"/>
+      <c r="O232" s="23"/>
+      <c r="P232" s="23"/>
+      <c r="Q232" s="23"/>
+      <c r="R232" s="23"/>
+      <c r="S232" s="23"/>
+      <c r="T232" s="23"/>
+      <c r="U232" s="23"/>
+      <c r="V232" s="23"/>
+      <c r="W232" s="23"/>
+      <c r="X232" s="24"/>
     </row>
     <row r="233" spans="3:24">
-      <c r="C233" s="11"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
-      <c r="P233" s="12"/>
-      <c r="Q233" s="12"/>
-      <c r="R233" s="12"/>
-      <c r="S233" s="12"/>
-      <c r="T233" s="12"/>
-      <c r="U233" s="12"/>
-      <c r="V233" s="12"/>
-      <c r="W233" s="12"/>
-      <c r="X233" s="13"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="23"/>
+      <c r="N233" s="23"/>
+      <c r="O233" s="23"/>
+      <c r="P233" s="23"/>
+      <c r="Q233" s="23"/>
+      <c r="R233" s="23"/>
+      <c r="S233" s="23"/>
+      <c r="T233" s="23"/>
+      <c r="U233" s="23"/>
+      <c r="V233" s="23"/>
+      <c r="W233" s="23"/>
+      <c r="X233" s="24"/>
     </row>
     <row r="234" spans="3:24">
-      <c r="C234" s="11"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
-      <c r="J234" s="12"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
-      <c r="P234" s="12"/>
-      <c r="Q234" s="12"/>
-      <c r="R234" s="12"/>
-      <c r="S234" s="12"/>
-      <c r="T234" s="12"/>
-      <c r="U234" s="12"/>
-      <c r="V234" s="12"/>
-      <c r="W234" s="12"/>
-      <c r="X234" s="13"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="23"/>
+      <c r="I234" s="23"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="23"/>
+      <c r="N234" s="23"/>
+      <c r="O234" s="23"/>
+      <c r="P234" s="23"/>
+      <c r="Q234" s="23"/>
+      <c r="R234" s="23"/>
+      <c r="S234" s="23"/>
+      <c r="T234" s="23"/>
+      <c r="U234" s="23"/>
+      <c r="V234" s="23"/>
+      <c r="W234" s="23"/>
+      <c r="X234" s="24"/>
     </row>
     <row r="235" spans="3:24">
-      <c r="C235" s="11"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-      <c r="Q235" s="12"/>
-      <c r="R235" s="12"/>
-      <c r="S235" s="12"/>
-      <c r="T235" s="12"/>
-      <c r="U235" s="12"/>
-      <c r="V235" s="12"/>
-      <c r="W235" s="12"/>
-      <c r="X235" s="13"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="23"/>
+      <c r="O235" s="23"/>
+      <c r="P235" s="23"/>
+      <c r="Q235" s="23"/>
+      <c r="R235" s="23"/>
+      <c r="S235" s="23"/>
+      <c r="T235" s="23"/>
+      <c r="U235" s="23"/>
+      <c r="V235" s="23"/>
+      <c r="W235" s="23"/>
+      <c r="X235" s="24"/>
     </row>
     <row r="236" spans="3:24">
-      <c r="C236" s="11"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
-      <c r="P236" s="12"/>
-      <c r="Q236" s="12"/>
-      <c r="R236" s="12"/>
-      <c r="S236" s="12"/>
-      <c r="T236" s="12"/>
-      <c r="U236" s="12"/>
-      <c r="V236" s="12"/>
-      <c r="W236" s="12"/>
-      <c r="X236" s="13"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="23"/>
+      <c r="N236" s="23"/>
+      <c r="O236" s="23"/>
+      <c r="P236" s="23"/>
+      <c r="Q236" s="23"/>
+      <c r="R236" s="23"/>
+      <c r="S236" s="23"/>
+      <c r="T236" s="23"/>
+      <c r="U236" s="23"/>
+      <c r="V236" s="23"/>
+      <c r="W236" s="23"/>
+      <c r="X236" s="24"/>
     </row>
     <row r="237" spans="3:24">
-      <c r="C237" s="11"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="12"/>
-      <c r="L237" s="12"/>
-      <c r="M237" s="12"/>
-      <c r="N237" s="12"/>
-      <c r="O237" s="12"/>
-      <c r="P237" s="12"/>
-      <c r="Q237" s="12"/>
-      <c r="R237" s="12"/>
-      <c r="S237" s="12"/>
-      <c r="T237" s="12"/>
-      <c r="U237" s="12"/>
-      <c r="V237" s="12"/>
-      <c r="W237" s="12"/>
-      <c r="X237" s="13"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23"/>
+      <c r="G237" s="23"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="23"/>
+      <c r="N237" s="23"/>
+      <c r="O237" s="23"/>
+      <c r="P237" s="23"/>
+      <c r="Q237" s="23"/>
+      <c r="R237" s="23"/>
+      <c r="S237" s="23"/>
+      <c r="T237" s="23"/>
+      <c r="U237" s="23"/>
+      <c r="V237" s="23"/>
+      <c r="W237" s="23"/>
+      <c r="X237" s="24"/>
     </row>
     <row r="238" spans="3:24">
-      <c r="C238" s="11"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="12"/>
-      <c r="L238" s="12"/>
-      <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
-      <c r="O238" s="12"/>
-      <c r="P238" s="12"/>
-      <c r="Q238" s="12"/>
-      <c r="R238" s="12"/>
-      <c r="S238" s="12"/>
-      <c r="T238" s="12"/>
-      <c r="U238" s="12"/>
-      <c r="V238" s="12"/>
-      <c r="W238" s="12"/>
-      <c r="X238" s="13"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="23"/>
+      <c r="M238" s="23"/>
+      <c r="N238" s="23"/>
+      <c r="O238" s="23"/>
+      <c r="P238" s="23"/>
+      <c r="Q238" s="23"/>
+      <c r="R238" s="23"/>
+      <c r="S238" s="23"/>
+      <c r="T238" s="23"/>
+      <c r="U238" s="23"/>
+      <c r="V238" s="23"/>
+      <c r="W238" s="23"/>
+      <c r="X238" s="24"/>
     </row>
     <row r="239" spans="3:24">
-      <c r="C239" s="11"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
-      <c r="Q239" s="12"/>
-      <c r="R239" s="12"/>
-      <c r="S239" s="12"/>
-      <c r="T239" s="12"/>
-      <c r="U239" s="12"/>
-      <c r="V239" s="12"/>
-      <c r="W239" s="12"/>
-      <c r="X239" s="13"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="23"/>
+      <c r="O239" s="23"/>
+      <c r="P239" s="23"/>
+      <c r="Q239" s="23"/>
+      <c r="R239" s="23"/>
+      <c r="S239" s="23"/>
+      <c r="T239" s="23"/>
+      <c r="U239" s="23"/>
+      <c r="V239" s="23"/>
+      <c r="W239" s="23"/>
+      <c r="X239" s="24"/>
     </row>
     <row r="240" spans="3:24">
-      <c r="C240" s="11"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="12"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
-      <c r="P240" s="12"/>
-      <c r="Q240" s="12"/>
-      <c r="R240" s="12"/>
-      <c r="S240" s="12"/>
-      <c r="T240" s="12"/>
-      <c r="U240" s="12"/>
-      <c r="V240" s="12"/>
-      <c r="W240" s="12"/>
-      <c r="X240" s="13"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="23"/>
+      <c r="O240" s="23"/>
+      <c r="P240" s="23"/>
+      <c r="Q240" s="23"/>
+      <c r="R240" s="23"/>
+      <c r="S240" s="23"/>
+      <c r="T240" s="23"/>
+      <c r="U240" s="23"/>
+      <c r="V240" s="23"/>
+      <c r="W240" s="23"/>
+      <c r="X240" s="24"/>
     </row>
     <row r="241" spans="1:24">
-      <c r="C241" s="11"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
-      <c r="S241" s="12"/>
-      <c r="T241" s="12"/>
-      <c r="U241" s="12"/>
-      <c r="V241" s="12"/>
-      <c r="W241" s="12"/>
-      <c r="X241" s="13"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="23"/>
+      <c r="P241" s="23"/>
+      <c r="Q241" s="23"/>
+      <c r="R241" s="23"/>
+      <c r="S241" s="23"/>
+      <c r="T241" s="23"/>
+      <c r="U241" s="23"/>
+      <c r="V241" s="23"/>
+      <c r="W241" s="23"/>
+      <c r="X241" s="24"/>
     </row>
     <row r="242" spans="1:24">
-      <c r="C242" s="11"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="12"/>
-      <c r="I242" s="12"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="12"/>
-      <c r="N242" s="12"/>
-      <c r="O242" s="12"/>
-      <c r="P242" s="12"/>
-      <c r="Q242" s="12"/>
-      <c r="R242" s="12"/>
-      <c r="S242" s="12"/>
-      <c r="T242" s="12"/>
-      <c r="U242" s="12"/>
-      <c r="V242" s="12"/>
-      <c r="W242" s="12"/>
-      <c r="X242" s="13"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="23"/>
+      <c r="O242" s="23"/>
+      <c r="P242" s="23"/>
+      <c r="Q242" s="23"/>
+      <c r="R242" s="23"/>
+      <c r="S242" s="23"/>
+      <c r="T242" s="23"/>
+      <c r="U242" s="23"/>
+      <c r="V242" s="23"/>
+      <c r="W242" s="23"/>
+      <c r="X242" s="24"/>
     </row>
     <row r="243" spans="1:24">
-      <c r="C243" s="11"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
-      <c r="P243" s="12"/>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
-      <c r="S243" s="12"/>
-      <c r="T243" s="12"/>
-      <c r="U243" s="12"/>
-      <c r="V243" s="12"/>
-      <c r="W243" s="12"/>
-      <c r="X243" s="13"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="23"/>
+      <c r="O243" s="23"/>
+      <c r="P243" s="23"/>
+      <c r="Q243" s="23"/>
+      <c r="R243" s="23"/>
+      <c r="S243" s="23"/>
+      <c r="T243" s="23"/>
+      <c r="U243" s="23"/>
+      <c r="V243" s="23"/>
+      <c r="W243" s="23"/>
+      <c r="X243" s="24"/>
     </row>
     <row r="244" spans="1:24">
-      <c r="C244" s="11"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
-      <c r="P244" s="12"/>
-      <c r="Q244" s="12"/>
-      <c r="R244" s="12"/>
-      <c r="S244" s="12"/>
-      <c r="T244" s="12"/>
-      <c r="U244" s="12"/>
-      <c r="V244" s="12"/>
-      <c r="W244" s="12"/>
-      <c r="X244" s="13"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="23"/>
+      <c r="O244" s="23"/>
+      <c r="P244" s="23"/>
+      <c r="Q244" s="23"/>
+      <c r="R244" s="23"/>
+      <c r="S244" s="23"/>
+      <c r="T244" s="23"/>
+      <c r="U244" s="23"/>
+      <c r="V244" s="23"/>
+      <c r="W244" s="23"/>
+      <c r="X244" s="24"/>
     </row>
     <row r="245" spans="1:24" ht="21" thickBot="1">
-      <c r="C245" s="14"/>
-      <c r="D245" s="15"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
-      <c r="I245" s="15"/>
-      <c r="J245" s="15"/>
-      <c r="K245" s="15"/>
-      <c r="L245" s="15"/>
-      <c r="M245" s="15"/>
-      <c r="N245" s="15"/>
-      <c r="O245" s="15"/>
-      <c r="P245" s="15"/>
-      <c r="Q245" s="15"/>
-      <c r="R245" s="15"/>
-      <c r="S245" s="15"/>
-      <c r="T245" s="15"/>
-      <c r="U245" s="15"/>
-      <c r="V245" s="15"/>
-      <c r="W245" s="15"/>
-      <c r="X245" s="16"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="26"/>
+      <c r="J245" s="26"/>
+      <c r="K245" s="26"/>
+      <c r="L245" s="26"/>
+      <c r="M245" s="26"/>
+      <c r="N245" s="26"/>
+      <c r="O245" s="26"/>
+      <c r="P245" s="26"/>
+      <c r="Q245" s="26"/>
+      <c r="R245" s="26"/>
+      <c r="S245" s="26"/>
+      <c r="T245" s="26"/>
+      <c r="U245" s="26"/>
+      <c r="V245" s="26"/>
+      <c r="W245" s="26"/>
+      <c r="X245" s="27"/>
     </row>
     <row r="247" spans="1:24">
-      <c r="C247" s="18" t="s">
+      <c r="C247" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="248" spans="1:24">
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:24">
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       </c>
     </row>
     <row r="281" spans="3:20">
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="10" t="s">
         <v>94</v>
       </c>
       <c r="K281" s="4"/>
@@ -5843,7 +5843,7 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="25" t="s">
+      <c r="K286" s="16" t="s">
         <v>107</v>
       </c>
       <c r="L286" s="4"/>
@@ -5857,7 +5857,7 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="3:20">
-      <c r="K287" s="26" t="s">
+      <c r="K287" s="17" t="s">
         <v>282</v>
       </c>
       <c r="L287" s="4"/>
@@ -5905,7 +5905,7 @@
       <c r="C290" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K290" s="27" t="s">
+      <c r="K290" s="18" t="s">
         <v>285</v>
       </c>
       <c r="L290" s="4"/>
@@ -5995,558 +5995,558 @@
     </row>
     <row r="311" spans="1:24" ht="21" thickBot="1"/>
     <row r="312" spans="1:24">
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D312" s="9"/>
-      <c r="E312" s="9"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
-      <c r="H312" s="9"/>
-      <c r="I312" s="9"/>
-      <c r="J312" s="9"/>
-      <c r="K312" s="9"/>
-      <c r="L312" s="9"/>
-      <c r="M312" s="9"/>
-      <c r="N312" s="9"/>
-      <c r="O312" s="9"/>
-      <c r="P312" s="9"/>
-      <c r="Q312" s="9"/>
-      <c r="R312" s="9"/>
-      <c r="S312" s="9"/>
-      <c r="T312" s="9"/>
-      <c r="U312" s="9"/>
-      <c r="V312" s="9"/>
-      <c r="W312" s="9"/>
-      <c r="X312" s="10"/>
+      <c r="D312" s="20"/>
+      <c r="E312" s="20"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="20"/>
+      <c r="H312" s="20"/>
+      <c r="I312" s="20"/>
+      <c r="J312" s="20"/>
+      <c r="K312" s="20"/>
+      <c r="L312" s="20"/>
+      <c r="M312" s="20"/>
+      <c r="N312" s="20"/>
+      <c r="O312" s="20"/>
+      <c r="P312" s="20"/>
+      <c r="Q312" s="20"/>
+      <c r="R312" s="20"/>
+      <c r="S312" s="20"/>
+      <c r="T312" s="20"/>
+      <c r="U312" s="20"/>
+      <c r="V312" s="20"/>
+      <c r="W312" s="20"/>
+      <c r="X312" s="21"/>
     </row>
     <row r="313" spans="1:24">
-      <c r="C313" s="11"/>
-      <c r="D313" s="12"/>
-      <c r="E313" s="12"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="12"/>
-      <c r="H313" s="12"/>
-      <c r="I313" s="12"/>
-      <c r="J313" s="12"/>
-      <c r="K313" s="12"/>
-      <c r="L313" s="12"/>
-      <c r="M313" s="12"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="12"/>
-      <c r="Q313" s="12"/>
-      <c r="R313" s="12"/>
-      <c r="S313" s="12"/>
-      <c r="T313" s="12"/>
-      <c r="U313" s="12"/>
-      <c r="V313" s="12"/>
-      <c r="W313" s="12"/>
-      <c r="X313" s="13"/>
+      <c r="C313" s="22"/>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23"/>
+      <c r="F313" s="23"/>
+      <c r="G313" s="23"/>
+      <c r="H313" s="23"/>
+      <c r="I313" s="23"/>
+      <c r="J313" s="23"/>
+      <c r="K313" s="23"/>
+      <c r="L313" s="23"/>
+      <c r="M313" s="23"/>
+      <c r="N313" s="23"/>
+      <c r="O313" s="23"/>
+      <c r="P313" s="23"/>
+      <c r="Q313" s="23"/>
+      <c r="R313" s="23"/>
+      <c r="S313" s="23"/>
+      <c r="T313" s="23"/>
+      <c r="U313" s="23"/>
+      <c r="V313" s="23"/>
+      <c r="W313" s="23"/>
+      <c r="X313" s="24"/>
     </row>
     <row r="314" spans="1:24">
-      <c r="C314" s="11"/>
-      <c r="D314" s="12"/>
-      <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="12"/>
-      <c r="H314" s="12"/>
-      <c r="I314" s="12"/>
-      <c r="J314" s="12"/>
-      <c r="K314" s="12"/>
-      <c r="L314" s="12"/>
-      <c r="M314" s="12"/>
-      <c r="N314" s="12"/>
-      <c r="O314" s="12"/>
-      <c r="P314" s="12"/>
-      <c r="Q314" s="12"/>
-      <c r="R314" s="12"/>
-      <c r="S314" s="12"/>
-      <c r="T314" s="12"/>
-      <c r="U314" s="12"/>
-      <c r="V314" s="12"/>
-      <c r="W314" s="12"/>
-      <c r="X314" s="13"/>
+      <c r="C314" s="22"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="23"/>
+      <c r="G314" s="23"/>
+      <c r="H314" s="23"/>
+      <c r="I314" s="23"/>
+      <c r="J314" s="23"/>
+      <c r="K314" s="23"/>
+      <c r="L314" s="23"/>
+      <c r="M314" s="23"/>
+      <c r="N314" s="23"/>
+      <c r="O314" s="23"/>
+      <c r="P314" s="23"/>
+      <c r="Q314" s="23"/>
+      <c r="R314" s="23"/>
+      <c r="S314" s="23"/>
+      <c r="T314" s="23"/>
+      <c r="U314" s="23"/>
+      <c r="V314" s="23"/>
+      <c r="W314" s="23"/>
+      <c r="X314" s="24"/>
     </row>
     <row r="315" spans="1:24">
-      <c r="C315" s="11"/>
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
-      <c r="F315" s="12"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="12"/>
-      <c r="I315" s="12"/>
-      <c r="J315" s="12"/>
-      <c r="K315" s="12"/>
-      <c r="L315" s="12"/>
-      <c r="M315" s="12"/>
-      <c r="N315" s="12"/>
-      <c r="O315" s="12"/>
-      <c r="P315" s="12"/>
-      <c r="Q315" s="12"/>
-      <c r="R315" s="12"/>
-      <c r="S315" s="12"/>
-      <c r="T315" s="12"/>
-      <c r="U315" s="12"/>
-      <c r="V315" s="12"/>
-      <c r="W315" s="12"/>
-      <c r="X315" s="13"/>
+      <c r="C315" s="22"/>
+      <c r="D315" s="23"/>
+      <c r="E315" s="23"/>
+      <c r="F315" s="23"/>
+      <c r="G315" s="23"/>
+      <c r="H315" s="23"/>
+      <c r="I315" s="23"/>
+      <c r="J315" s="23"/>
+      <c r="K315" s="23"/>
+      <c r="L315" s="23"/>
+      <c r="M315" s="23"/>
+      <c r="N315" s="23"/>
+      <c r="O315" s="23"/>
+      <c r="P315" s="23"/>
+      <c r="Q315" s="23"/>
+      <c r="R315" s="23"/>
+      <c r="S315" s="23"/>
+      <c r="T315" s="23"/>
+      <c r="U315" s="23"/>
+      <c r="V315" s="23"/>
+      <c r="W315" s="23"/>
+      <c r="X315" s="24"/>
     </row>
     <row r="316" spans="1:24">
-      <c r="C316" s="11"/>
-      <c r="D316" s="12"/>
-      <c r="E316" s="12"/>
-      <c r="F316" s="12"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="12"/>
-      <c r="I316" s="12"/>
-      <c r="J316" s="12"/>
-      <c r="K316" s="12"/>
-      <c r="L316" s="12"/>
-      <c r="M316" s="12"/>
-      <c r="N316" s="12"/>
-      <c r="O316" s="12"/>
-      <c r="P316" s="12"/>
-      <c r="Q316" s="12"/>
-      <c r="R316" s="12"/>
-      <c r="S316" s="12"/>
-      <c r="T316" s="12"/>
-      <c r="U316" s="12"/>
-      <c r="V316" s="12"/>
-      <c r="W316" s="12"/>
-      <c r="X316" s="13"/>
+      <c r="C316" s="22"/>
+      <c r="D316" s="23"/>
+      <c r="E316" s="23"/>
+      <c r="F316" s="23"/>
+      <c r="G316" s="23"/>
+      <c r="H316" s="23"/>
+      <c r="I316" s="23"/>
+      <c r="J316" s="23"/>
+      <c r="K316" s="23"/>
+      <c r="L316" s="23"/>
+      <c r="M316" s="23"/>
+      <c r="N316" s="23"/>
+      <c r="O316" s="23"/>
+      <c r="P316" s="23"/>
+      <c r="Q316" s="23"/>
+      <c r="R316" s="23"/>
+      <c r="S316" s="23"/>
+      <c r="T316" s="23"/>
+      <c r="U316" s="23"/>
+      <c r="V316" s="23"/>
+      <c r="W316" s="23"/>
+      <c r="X316" s="24"/>
     </row>
     <row r="317" spans="1:24">
-      <c r="C317" s="11"/>
-      <c r="D317" s="12"/>
-      <c r="E317" s="12"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="I317" s="12"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12"/>
-      <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
-      <c r="Q317" s="12"/>
-      <c r="R317" s="12"/>
-      <c r="S317" s="12"/>
-      <c r="T317" s="12"/>
-      <c r="U317" s="12"/>
-      <c r="V317" s="12"/>
-      <c r="W317" s="12"/>
-      <c r="X317" s="13"/>
+      <c r="C317" s="22"/>
+      <c r="D317" s="23"/>
+      <c r="E317" s="23"/>
+      <c r="F317" s="23"/>
+      <c r="G317" s="23"/>
+      <c r="H317" s="23"/>
+      <c r="I317" s="23"/>
+      <c r="J317" s="23"/>
+      <c r="K317" s="23"/>
+      <c r="L317" s="23"/>
+      <c r="M317" s="23"/>
+      <c r="N317" s="23"/>
+      <c r="O317" s="23"/>
+      <c r="P317" s="23"/>
+      <c r="Q317" s="23"/>
+      <c r="R317" s="23"/>
+      <c r="S317" s="23"/>
+      <c r="T317" s="23"/>
+      <c r="U317" s="23"/>
+      <c r="V317" s="23"/>
+      <c r="W317" s="23"/>
+      <c r="X317" s="24"/>
     </row>
     <row r="318" spans="1:24">
-      <c r="C318" s="11"/>
-      <c r="D318" s="12"/>
-      <c r="E318" s="12"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
-      <c r="I318" s="12"/>
-      <c r="J318" s="12"/>
-      <c r="K318" s="12"/>
-      <c r="L318" s="12"/>
-      <c r="M318" s="12"/>
-      <c r="N318" s="12"/>
-      <c r="O318" s="12"/>
-      <c r="P318" s="12"/>
-      <c r="Q318" s="12"/>
-      <c r="R318" s="12"/>
-      <c r="S318" s="12"/>
-      <c r="T318" s="12"/>
-      <c r="U318" s="12"/>
-      <c r="V318" s="12"/>
-      <c r="W318" s="12"/>
-      <c r="X318" s="13"/>
+      <c r="C318" s="22"/>
+      <c r="D318" s="23"/>
+      <c r="E318" s="23"/>
+      <c r="F318" s="23"/>
+      <c r="G318" s="23"/>
+      <c r="H318" s="23"/>
+      <c r="I318" s="23"/>
+      <c r="J318" s="23"/>
+      <c r="K318" s="23"/>
+      <c r="L318" s="23"/>
+      <c r="M318" s="23"/>
+      <c r="N318" s="23"/>
+      <c r="O318" s="23"/>
+      <c r="P318" s="23"/>
+      <c r="Q318" s="23"/>
+      <c r="R318" s="23"/>
+      <c r="S318" s="23"/>
+      <c r="T318" s="23"/>
+      <c r="U318" s="23"/>
+      <c r="V318" s="23"/>
+      <c r="W318" s="23"/>
+      <c r="X318" s="24"/>
     </row>
     <row r="319" spans="1:24">
-      <c r="C319" s="11"/>
-      <c r="D319" s="12"/>
-      <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12"/>
-      <c r="M319" s="12"/>
-      <c r="N319" s="12"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="12"/>
-      <c r="Q319" s="12"/>
-      <c r="R319" s="12"/>
-      <c r="S319" s="12"/>
-      <c r="T319" s="12"/>
-      <c r="U319" s="12"/>
-      <c r="V319" s="12"/>
-      <c r="W319" s="12"/>
-      <c r="X319" s="13"/>
+      <c r="C319" s="22"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="23"/>
+      <c r="G319" s="23"/>
+      <c r="H319" s="23"/>
+      <c r="I319" s="23"/>
+      <c r="J319" s="23"/>
+      <c r="K319" s="23"/>
+      <c r="L319" s="23"/>
+      <c r="M319" s="23"/>
+      <c r="N319" s="23"/>
+      <c r="O319" s="23"/>
+      <c r="P319" s="23"/>
+      <c r="Q319" s="23"/>
+      <c r="R319" s="23"/>
+      <c r="S319" s="23"/>
+      <c r="T319" s="23"/>
+      <c r="U319" s="23"/>
+      <c r="V319" s="23"/>
+      <c r="W319" s="23"/>
+      <c r="X319" s="24"/>
     </row>
     <row r="320" spans="1:24">
-      <c r="C320" s="11"/>
-      <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
-      <c r="M320" s="12"/>
-      <c r="N320" s="12"/>
-      <c r="O320" s="12"/>
-      <c r="P320" s="12"/>
-      <c r="Q320" s="12"/>
-      <c r="R320" s="12"/>
-      <c r="S320" s="12"/>
-      <c r="T320" s="12"/>
-      <c r="U320" s="12"/>
-      <c r="V320" s="12"/>
-      <c r="W320" s="12"/>
-      <c r="X320" s="13"/>
+      <c r="C320" s="22"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="23"/>
+      <c r="G320" s="23"/>
+      <c r="H320" s="23"/>
+      <c r="I320" s="23"/>
+      <c r="J320" s="23"/>
+      <c r="K320" s="23"/>
+      <c r="L320" s="23"/>
+      <c r="M320" s="23"/>
+      <c r="N320" s="23"/>
+      <c r="O320" s="23"/>
+      <c r="P320" s="23"/>
+      <c r="Q320" s="23"/>
+      <c r="R320" s="23"/>
+      <c r="S320" s="23"/>
+      <c r="T320" s="23"/>
+      <c r="U320" s="23"/>
+      <c r="V320" s="23"/>
+      <c r="W320" s="23"/>
+      <c r="X320" s="24"/>
     </row>
     <row r="321" spans="3:24">
-      <c r="C321" s="11"/>
-      <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
-      <c r="M321" s="12"/>
-      <c r="N321" s="12"/>
-      <c r="O321" s="12"/>
-      <c r="P321" s="12"/>
-      <c r="Q321" s="12"/>
-      <c r="R321" s="12"/>
-      <c r="S321" s="12"/>
-      <c r="T321" s="12"/>
-      <c r="U321" s="12"/>
-      <c r="V321" s="12"/>
-      <c r="W321" s="12"/>
-      <c r="X321" s="13"/>
+      <c r="C321" s="22"/>
+      <c r="D321" s="23"/>
+      <c r="E321" s="23"/>
+      <c r="F321" s="23"/>
+      <c r="G321" s="23"/>
+      <c r="H321" s="23"/>
+      <c r="I321" s="23"/>
+      <c r="J321" s="23"/>
+      <c r="K321" s="23"/>
+      <c r="L321" s="23"/>
+      <c r="M321" s="23"/>
+      <c r="N321" s="23"/>
+      <c r="O321" s="23"/>
+      <c r="P321" s="23"/>
+      <c r="Q321" s="23"/>
+      <c r="R321" s="23"/>
+      <c r="S321" s="23"/>
+      <c r="T321" s="23"/>
+      <c r="U321" s="23"/>
+      <c r="V321" s="23"/>
+      <c r="W321" s="23"/>
+      <c r="X321" s="24"/>
     </row>
     <row r="322" spans="3:24">
-      <c r="C322" s="11"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
-      <c r="Q322" s="12"/>
-      <c r="R322" s="12"/>
-      <c r="S322" s="12"/>
-      <c r="T322" s="12"/>
-      <c r="U322" s="12"/>
-      <c r="V322" s="12"/>
-      <c r="W322" s="12"/>
-      <c r="X322" s="13"/>
+      <c r="C322" s="22"/>
+      <c r="D322" s="23"/>
+      <c r="E322" s="23"/>
+      <c r="F322" s="23"/>
+      <c r="G322" s="23"/>
+      <c r="H322" s="23"/>
+      <c r="I322" s="23"/>
+      <c r="J322" s="23"/>
+      <c r="K322" s="23"/>
+      <c r="L322" s="23"/>
+      <c r="M322" s="23"/>
+      <c r="N322" s="23"/>
+      <c r="O322" s="23"/>
+      <c r="P322" s="23"/>
+      <c r="Q322" s="23"/>
+      <c r="R322" s="23"/>
+      <c r="S322" s="23"/>
+      <c r="T322" s="23"/>
+      <c r="U322" s="23"/>
+      <c r="V322" s="23"/>
+      <c r="W322" s="23"/>
+      <c r="X322" s="24"/>
     </row>
     <row r="323" spans="3:24">
-      <c r="C323" s="11"/>
-      <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-      <c r="Q323" s="12"/>
-      <c r="R323" s="12"/>
-      <c r="S323" s="12"/>
-      <c r="T323" s="12"/>
-      <c r="U323" s="12"/>
-      <c r="V323" s="12"/>
-      <c r="W323" s="12"/>
-      <c r="X323" s="13"/>
+      <c r="C323" s="22"/>
+      <c r="D323" s="23"/>
+      <c r="E323" s="23"/>
+      <c r="F323" s="23"/>
+      <c r="G323" s="23"/>
+      <c r="H323" s="23"/>
+      <c r="I323" s="23"/>
+      <c r="J323" s="23"/>
+      <c r="K323" s="23"/>
+      <c r="L323" s="23"/>
+      <c r="M323" s="23"/>
+      <c r="N323" s="23"/>
+      <c r="O323" s="23"/>
+      <c r="P323" s="23"/>
+      <c r="Q323" s="23"/>
+      <c r="R323" s="23"/>
+      <c r="S323" s="23"/>
+      <c r="T323" s="23"/>
+      <c r="U323" s="23"/>
+      <c r="V323" s="23"/>
+      <c r="W323" s="23"/>
+      <c r="X323" s="24"/>
     </row>
     <row r="324" spans="3:24">
-      <c r="C324" s="11"/>
-      <c r="D324" s="12"/>
-      <c r="E324" s="12"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
-      <c r="Q324" s="12"/>
-      <c r="R324" s="12"/>
-      <c r="S324" s="12"/>
-      <c r="T324" s="12"/>
-      <c r="U324" s="12"/>
-      <c r="V324" s="12"/>
-      <c r="W324" s="12"/>
-      <c r="X324" s="13"/>
+      <c r="C324" s="22"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="23"/>
+      <c r="F324" s="23"/>
+      <c r="G324" s="23"/>
+      <c r="H324" s="23"/>
+      <c r="I324" s="23"/>
+      <c r="J324" s="23"/>
+      <c r="K324" s="23"/>
+      <c r="L324" s="23"/>
+      <c r="M324" s="23"/>
+      <c r="N324" s="23"/>
+      <c r="O324" s="23"/>
+      <c r="P324" s="23"/>
+      <c r="Q324" s="23"/>
+      <c r="R324" s="23"/>
+      <c r="S324" s="23"/>
+      <c r="T324" s="23"/>
+      <c r="U324" s="23"/>
+      <c r="V324" s="23"/>
+      <c r="W324" s="23"/>
+      <c r="X324" s="24"/>
     </row>
     <row r="325" spans="3:24">
-      <c r="C325" s="11"/>
-      <c r="D325" s="12"/>
-      <c r="E325" s="12"/>
-      <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
-      <c r="J325" s="12"/>
-      <c r="K325" s="12"/>
-      <c r="L325" s="12"/>
-      <c r="M325" s="12"/>
-      <c r="N325" s="12"/>
-      <c r="O325" s="12"/>
-      <c r="P325" s="12"/>
-      <c r="Q325" s="12"/>
-      <c r="R325" s="12"/>
-      <c r="S325" s="12"/>
-      <c r="T325" s="12"/>
-      <c r="U325" s="12"/>
-      <c r="V325" s="12"/>
-      <c r="W325" s="12"/>
-      <c r="X325" s="13"/>
+      <c r="C325" s="22"/>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="23"/>
+      <c r="G325" s="23"/>
+      <c r="H325" s="23"/>
+      <c r="I325" s="23"/>
+      <c r="J325" s="23"/>
+      <c r="K325" s="23"/>
+      <c r="L325" s="23"/>
+      <c r="M325" s="23"/>
+      <c r="N325" s="23"/>
+      <c r="O325" s="23"/>
+      <c r="P325" s="23"/>
+      <c r="Q325" s="23"/>
+      <c r="R325" s="23"/>
+      <c r="S325" s="23"/>
+      <c r="T325" s="23"/>
+      <c r="U325" s="23"/>
+      <c r="V325" s="23"/>
+      <c r="W325" s="23"/>
+      <c r="X325" s="24"/>
     </row>
     <row r="326" spans="3:24">
-      <c r="C326" s="11"/>
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
-      <c r="F326" s="12"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
-      <c r="J326" s="12"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
-      <c r="M326" s="12"/>
-      <c r="N326" s="12"/>
-      <c r="O326" s="12"/>
-      <c r="P326" s="12"/>
-      <c r="Q326" s="12"/>
-      <c r="R326" s="12"/>
-      <c r="S326" s="12"/>
-      <c r="T326" s="12"/>
-      <c r="U326" s="12"/>
-      <c r="V326" s="12"/>
-      <c r="W326" s="12"/>
-      <c r="X326" s="13"/>
+      <c r="C326" s="22"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="23"/>
+      <c r="G326" s="23"/>
+      <c r="H326" s="23"/>
+      <c r="I326" s="23"/>
+      <c r="J326" s="23"/>
+      <c r="K326" s="23"/>
+      <c r="L326" s="23"/>
+      <c r="M326" s="23"/>
+      <c r="N326" s="23"/>
+      <c r="O326" s="23"/>
+      <c r="P326" s="23"/>
+      <c r="Q326" s="23"/>
+      <c r="R326" s="23"/>
+      <c r="S326" s="23"/>
+      <c r="T326" s="23"/>
+      <c r="U326" s="23"/>
+      <c r="V326" s="23"/>
+      <c r="W326" s="23"/>
+      <c r="X326" s="24"/>
     </row>
     <row r="327" spans="3:24">
-      <c r="C327" s="11"/>
-      <c r="D327" s="12"/>
-      <c r="E327" s="12"/>
-      <c r="F327" s="12"/>
-      <c r="G327" s="12"/>
-      <c r="H327" s="12"/>
-      <c r="I327" s="12"/>
-      <c r="J327" s="12"/>
-      <c r="K327" s="12"/>
-      <c r="L327" s="12"/>
-      <c r="M327" s="12"/>
-      <c r="N327" s="12"/>
-      <c r="O327" s="12"/>
-      <c r="P327" s="12"/>
-      <c r="Q327" s="12"/>
-      <c r="R327" s="12"/>
-      <c r="S327" s="12"/>
-      <c r="T327" s="12"/>
-      <c r="U327" s="12"/>
-      <c r="V327" s="12"/>
-      <c r="W327" s="12"/>
-      <c r="X327" s="13"/>
+      <c r="C327" s="22"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="23"/>
+      <c r="G327" s="23"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="J327" s="23"/>
+      <c r="K327" s="23"/>
+      <c r="L327" s="23"/>
+      <c r="M327" s="23"/>
+      <c r="N327" s="23"/>
+      <c r="O327" s="23"/>
+      <c r="P327" s="23"/>
+      <c r="Q327" s="23"/>
+      <c r="R327" s="23"/>
+      <c r="S327" s="23"/>
+      <c r="T327" s="23"/>
+      <c r="U327" s="23"/>
+      <c r="V327" s="23"/>
+      <c r="W327" s="23"/>
+      <c r="X327" s="24"/>
     </row>
     <row r="328" spans="3:24">
-      <c r="C328" s="11"/>
-      <c r="D328" s="12"/>
-      <c r="E328" s="12"/>
-      <c r="F328" s="12"/>
-      <c r="G328" s="12"/>
-      <c r="H328" s="12"/>
-      <c r="I328" s="12"/>
-      <c r="J328" s="12"/>
-      <c r="K328" s="12"/>
-      <c r="L328" s="12"/>
-      <c r="M328" s="12"/>
-      <c r="N328" s="12"/>
-      <c r="O328" s="12"/>
-      <c r="P328" s="12"/>
-      <c r="Q328" s="12"/>
-      <c r="R328" s="12"/>
-      <c r="S328" s="12"/>
-      <c r="T328" s="12"/>
-      <c r="U328" s="12"/>
-      <c r="V328" s="12"/>
-      <c r="W328" s="12"/>
-      <c r="X328" s="13"/>
+      <c r="C328" s="22"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
+      <c r="G328" s="23"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="23"/>
+      <c r="L328" s="23"/>
+      <c r="M328" s="23"/>
+      <c r="N328" s="23"/>
+      <c r="O328" s="23"/>
+      <c r="P328" s="23"/>
+      <c r="Q328" s="23"/>
+      <c r="R328" s="23"/>
+      <c r="S328" s="23"/>
+      <c r="T328" s="23"/>
+      <c r="U328" s="23"/>
+      <c r="V328" s="23"/>
+      <c r="W328" s="23"/>
+      <c r="X328" s="24"/>
     </row>
     <row r="329" spans="3:24">
-      <c r="C329" s="11"/>
-      <c r="D329" s="12"/>
-      <c r="E329" s="12"/>
-      <c r="F329" s="12"/>
-      <c r="G329" s="12"/>
-      <c r="H329" s="12"/>
-      <c r="I329" s="12"/>
-      <c r="J329" s="12"/>
-      <c r="K329" s="12"/>
-      <c r="L329" s="12"/>
-      <c r="M329" s="12"/>
-      <c r="N329" s="12"/>
-      <c r="O329" s="12"/>
-      <c r="P329" s="12"/>
-      <c r="Q329" s="12"/>
-      <c r="R329" s="12"/>
-      <c r="S329" s="12"/>
-      <c r="T329" s="12"/>
-      <c r="U329" s="12"/>
-      <c r="V329" s="12"/>
-      <c r="W329" s="12"/>
-      <c r="X329" s="13"/>
+      <c r="C329" s="22"/>
+      <c r="D329" s="23"/>
+      <c r="E329" s="23"/>
+      <c r="F329" s="23"/>
+      <c r="G329" s="23"/>
+      <c r="H329" s="23"/>
+      <c r="I329" s="23"/>
+      <c r="J329" s="23"/>
+      <c r="K329" s="23"/>
+      <c r="L329" s="23"/>
+      <c r="M329" s="23"/>
+      <c r="N329" s="23"/>
+      <c r="O329" s="23"/>
+      <c r="P329" s="23"/>
+      <c r="Q329" s="23"/>
+      <c r="R329" s="23"/>
+      <c r="S329" s="23"/>
+      <c r="T329" s="23"/>
+      <c r="U329" s="23"/>
+      <c r="V329" s="23"/>
+      <c r="W329" s="23"/>
+      <c r="X329" s="24"/>
     </row>
     <row r="330" spans="3:24">
-      <c r="C330" s="11"/>
-      <c r="D330" s="12"/>
-      <c r="E330" s="12"/>
-      <c r="F330" s="12"/>
-      <c r="G330" s="12"/>
-      <c r="H330" s="12"/>
-      <c r="I330" s="12"/>
-      <c r="J330" s="12"/>
-      <c r="K330" s="12"/>
-      <c r="L330" s="12"/>
-      <c r="M330" s="12"/>
-      <c r="N330" s="12"/>
-      <c r="O330" s="12"/>
-      <c r="P330" s="12"/>
-      <c r="Q330" s="12"/>
-      <c r="R330" s="12"/>
-      <c r="S330" s="12"/>
-      <c r="T330" s="12"/>
-      <c r="U330" s="12"/>
-      <c r="V330" s="12"/>
-      <c r="W330" s="12"/>
-      <c r="X330" s="13"/>
+      <c r="C330" s="22"/>
+      <c r="D330" s="23"/>
+      <c r="E330" s="23"/>
+      <c r="F330" s="23"/>
+      <c r="G330" s="23"/>
+      <c r="H330" s="23"/>
+      <c r="I330" s="23"/>
+      <c r="J330" s="23"/>
+      <c r="K330" s="23"/>
+      <c r="L330" s="23"/>
+      <c r="M330" s="23"/>
+      <c r="N330" s="23"/>
+      <c r="O330" s="23"/>
+      <c r="P330" s="23"/>
+      <c r="Q330" s="23"/>
+      <c r="R330" s="23"/>
+      <c r="S330" s="23"/>
+      <c r="T330" s="23"/>
+      <c r="U330" s="23"/>
+      <c r="V330" s="23"/>
+      <c r="W330" s="23"/>
+      <c r="X330" s="24"/>
     </row>
     <row r="331" spans="3:24">
-      <c r="C331" s="11"/>
-      <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
-      <c r="F331" s="12"/>
-      <c r="G331" s="12"/>
-      <c r="H331" s="12"/>
-      <c r="I331" s="12"/>
-      <c r="J331" s="12"/>
-      <c r="K331" s="12"/>
-      <c r="L331" s="12"/>
-      <c r="M331" s="12"/>
-      <c r="N331" s="12"/>
-      <c r="O331" s="12"/>
-      <c r="P331" s="12"/>
-      <c r="Q331" s="12"/>
-      <c r="R331" s="12"/>
-      <c r="S331" s="12"/>
-      <c r="T331" s="12"/>
-      <c r="U331" s="12"/>
-      <c r="V331" s="12"/>
-      <c r="W331" s="12"/>
-      <c r="X331" s="13"/>
+      <c r="C331" s="22"/>
+      <c r="D331" s="23"/>
+      <c r="E331" s="23"/>
+      <c r="F331" s="23"/>
+      <c r="G331" s="23"/>
+      <c r="H331" s="23"/>
+      <c r="I331" s="23"/>
+      <c r="J331" s="23"/>
+      <c r="K331" s="23"/>
+      <c r="L331" s="23"/>
+      <c r="M331" s="23"/>
+      <c r="N331" s="23"/>
+      <c r="O331" s="23"/>
+      <c r="P331" s="23"/>
+      <c r="Q331" s="23"/>
+      <c r="R331" s="23"/>
+      <c r="S331" s="23"/>
+      <c r="T331" s="23"/>
+      <c r="U331" s="23"/>
+      <c r="V331" s="23"/>
+      <c r="W331" s="23"/>
+      <c r="X331" s="24"/>
     </row>
     <row r="332" spans="3:24">
-      <c r="C332" s="11"/>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
-      <c r="F332" s="12"/>
-      <c r="G332" s="12"/>
-      <c r="H332" s="12"/>
-      <c r="I332" s="12"/>
-      <c r="J332" s="12"/>
-      <c r="K332" s="12"/>
-      <c r="L332" s="12"/>
-      <c r="M332" s="12"/>
-      <c r="N332" s="12"/>
-      <c r="O332" s="12"/>
-      <c r="P332" s="12"/>
-      <c r="Q332" s="12"/>
-      <c r="R332" s="12"/>
-      <c r="S332" s="12"/>
-      <c r="T332" s="12"/>
-      <c r="U332" s="12"/>
-      <c r="V332" s="12"/>
-      <c r="W332" s="12"/>
-      <c r="X332" s="13"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="23"/>
+      <c r="E332" s="23"/>
+      <c r="F332" s="23"/>
+      <c r="G332" s="23"/>
+      <c r="H332" s="23"/>
+      <c r="I332" s="23"/>
+      <c r="J332" s="23"/>
+      <c r="K332" s="23"/>
+      <c r="L332" s="23"/>
+      <c r="M332" s="23"/>
+      <c r="N332" s="23"/>
+      <c r="O332" s="23"/>
+      <c r="P332" s="23"/>
+      <c r="Q332" s="23"/>
+      <c r="R332" s="23"/>
+      <c r="S332" s="23"/>
+      <c r="T332" s="23"/>
+      <c r="U332" s="23"/>
+      <c r="V332" s="23"/>
+      <c r="W332" s="23"/>
+      <c r="X332" s="24"/>
     </row>
     <row r="333" spans="3:24">
-      <c r="C333" s="11"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-      <c r="G333" s="12"/>
-      <c r="H333" s="12"/>
-      <c r="I333" s="12"/>
-      <c r="J333" s="12"/>
-      <c r="K333" s="12"/>
-      <c r="L333" s="12"/>
-      <c r="M333" s="12"/>
-      <c r="N333" s="12"/>
-      <c r="O333" s="12"/>
-      <c r="P333" s="12"/>
-      <c r="Q333" s="12"/>
-      <c r="R333" s="12"/>
-      <c r="S333" s="12"/>
-      <c r="T333" s="12"/>
-      <c r="U333" s="12"/>
-      <c r="V333" s="12"/>
-      <c r="W333" s="12"/>
-      <c r="X333" s="13"/>
+      <c r="C333" s="22"/>
+      <c r="D333" s="23"/>
+      <c r="E333" s="23"/>
+      <c r="F333" s="23"/>
+      <c r="G333" s="23"/>
+      <c r="H333" s="23"/>
+      <c r="I333" s="23"/>
+      <c r="J333" s="23"/>
+      <c r="K333" s="23"/>
+      <c r="L333" s="23"/>
+      <c r="M333" s="23"/>
+      <c r="N333" s="23"/>
+      <c r="O333" s="23"/>
+      <c r="P333" s="23"/>
+      <c r="Q333" s="23"/>
+      <c r="R333" s="23"/>
+      <c r="S333" s="23"/>
+      <c r="T333" s="23"/>
+      <c r="U333" s="23"/>
+      <c r="V333" s="23"/>
+      <c r="W333" s="23"/>
+      <c r="X333" s="24"/>
     </row>
     <row r="334" spans="3:24" ht="21" thickBot="1">
-      <c r="C334" s="14"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="15"/>
-      <c r="I334" s="15"/>
-      <c r="J334" s="15"/>
-      <c r="K334" s="15"/>
-      <c r="L334" s="15"/>
-      <c r="M334" s="15"/>
-      <c r="N334" s="15"/>
-      <c r="O334" s="15"/>
-      <c r="P334" s="15"/>
-      <c r="Q334" s="15"/>
-      <c r="R334" s="15"/>
-      <c r="S334" s="15"/>
-      <c r="T334" s="15"/>
-      <c r="U334" s="15"/>
-      <c r="V334" s="15"/>
-      <c r="W334" s="15"/>
-      <c r="X334" s="16"/>
+      <c r="C334" s="25"/>
+      <c r="D334" s="26"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="26"/>
+      <c r="G334" s="26"/>
+      <c r="H334" s="26"/>
+      <c r="I334" s="26"/>
+      <c r="J334" s="26"/>
+      <c r="K334" s="26"/>
+      <c r="L334" s="26"/>
+      <c r="M334" s="26"/>
+      <c r="N334" s="26"/>
+      <c r="O334" s="26"/>
+      <c r="P334" s="26"/>
+      <c r="Q334" s="26"/>
+      <c r="R334" s="26"/>
+      <c r="S334" s="26"/>
+      <c r="T334" s="26"/>
+      <c r="U334" s="26"/>
+      <c r="V334" s="26"/>
+      <c r="W334" s="26"/>
+      <c r="X334" s="27"/>
     </row>
     <row r="337" spans="2:24">
       <c r="B337" t="s">
@@ -6561,942 +6561,942 @@
     </row>
     <row r="338" spans="2:24" ht="21" thickBot="1"/>
     <row r="339" spans="2:24">
-      <c r="C339" s="17" t="s">
+      <c r="C339" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="9"/>
-      <c r="G339" s="9"/>
-      <c r="H339" s="9"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="9"/>
-      <c r="K339" s="9"/>
-      <c r="L339" s="9"/>
-      <c r="M339" s="9"/>
-      <c r="N339" s="9"/>
-      <c r="O339" s="9"/>
-      <c r="P339" s="9"/>
-      <c r="Q339" s="9"/>
-      <c r="R339" s="9"/>
-      <c r="S339" s="9"/>
-      <c r="T339" s="9"/>
-      <c r="U339" s="9"/>
-      <c r="V339" s="9"/>
-      <c r="W339" s="9"/>
-      <c r="X339" s="10"/>
+      <c r="D339" s="20"/>
+      <c r="E339" s="20"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="20"/>
+      <c r="H339" s="20"/>
+      <c r="I339" s="20"/>
+      <c r="J339" s="20"/>
+      <c r="K339" s="20"/>
+      <c r="L339" s="20"/>
+      <c r="M339" s="20"/>
+      <c r="N339" s="20"/>
+      <c r="O339" s="20"/>
+      <c r="P339" s="20"/>
+      <c r="Q339" s="20"/>
+      <c r="R339" s="20"/>
+      <c r="S339" s="20"/>
+      <c r="T339" s="20"/>
+      <c r="U339" s="20"/>
+      <c r="V339" s="20"/>
+      <c r="W339" s="20"/>
+      <c r="X339" s="21"/>
     </row>
     <row r="340" spans="2:24">
-      <c r="C340" s="11"/>
-      <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
-      <c r="F340" s="12"/>
-      <c r="G340" s="12"/>
-      <c r="H340" s="12"/>
-      <c r="I340" s="12"/>
-      <c r="J340" s="12"/>
-      <c r="K340" s="12"/>
-      <c r="L340" s="12"/>
-      <c r="M340" s="12"/>
-      <c r="N340" s="12"/>
-      <c r="O340" s="12"/>
-      <c r="P340" s="12"/>
-      <c r="Q340" s="12"/>
-      <c r="R340" s="12"/>
-      <c r="S340" s="12"/>
-      <c r="T340" s="12"/>
-      <c r="U340" s="12"/>
-      <c r="V340" s="12"/>
-      <c r="W340" s="12"/>
-      <c r="X340" s="13"/>
+      <c r="C340" s="22"/>
+      <c r="D340" s="23"/>
+      <c r="E340" s="23"/>
+      <c r="F340" s="23"/>
+      <c r="G340" s="23"/>
+      <c r="H340" s="23"/>
+      <c r="I340" s="23"/>
+      <c r="J340" s="23"/>
+      <c r="K340" s="23"/>
+      <c r="L340" s="23"/>
+      <c r="M340" s="23"/>
+      <c r="N340" s="23"/>
+      <c r="O340" s="23"/>
+      <c r="P340" s="23"/>
+      <c r="Q340" s="23"/>
+      <c r="R340" s="23"/>
+      <c r="S340" s="23"/>
+      <c r="T340" s="23"/>
+      <c r="U340" s="23"/>
+      <c r="V340" s="23"/>
+      <c r="W340" s="23"/>
+      <c r="X340" s="24"/>
     </row>
     <row r="341" spans="2:24">
-      <c r="C341" s="11"/>
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="12"/>
-      <c r="G341" s="12"/>
-      <c r="H341" s="12"/>
-      <c r="I341" s="12"/>
-      <c r="J341" s="12"/>
-      <c r="K341" s="12"/>
-      <c r="L341" s="12"/>
-      <c r="M341" s="12"/>
-      <c r="N341" s="12"/>
-      <c r="O341" s="12"/>
-      <c r="P341" s="12"/>
-      <c r="Q341" s="12"/>
-      <c r="R341" s="12"/>
-      <c r="S341" s="12"/>
-      <c r="T341" s="12"/>
-      <c r="U341" s="12"/>
-      <c r="V341" s="12"/>
-      <c r="W341" s="12"/>
-      <c r="X341" s="13"/>
+      <c r="C341" s="22"/>
+      <c r="D341" s="23"/>
+      <c r="E341" s="23"/>
+      <c r="F341" s="23"/>
+      <c r="G341" s="23"/>
+      <c r="H341" s="23"/>
+      <c r="I341" s="23"/>
+      <c r="J341" s="23"/>
+      <c r="K341" s="23"/>
+      <c r="L341" s="23"/>
+      <c r="M341" s="23"/>
+      <c r="N341" s="23"/>
+      <c r="O341" s="23"/>
+      <c r="P341" s="23"/>
+      <c r="Q341" s="23"/>
+      <c r="R341" s="23"/>
+      <c r="S341" s="23"/>
+      <c r="T341" s="23"/>
+      <c r="U341" s="23"/>
+      <c r="V341" s="23"/>
+      <c r="W341" s="23"/>
+      <c r="X341" s="24"/>
     </row>
     <row r="342" spans="2:24">
-      <c r="C342" s="11"/>
-      <c r="D342" s="12"/>
-      <c r="E342" s="12"/>
-      <c r="F342" s="12"/>
-      <c r="G342" s="12"/>
-      <c r="H342" s="12"/>
-      <c r="I342" s="12"/>
-      <c r="J342" s="12"/>
-      <c r="K342" s="12"/>
-      <c r="L342" s="12"/>
-      <c r="M342" s="12"/>
-      <c r="N342" s="12"/>
-      <c r="O342" s="12"/>
-      <c r="P342" s="12"/>
-      <c r="Q342" s="12"/>
-      <c r="R342" s="12"/>
-      <c r="S342" s="12"/>
-      <c r="T342" s="12"/>
-      <c r="U342" s="12"/>
-      <c r="V342" s="12"/>
-      <c r="W342" s="12"/>
-      <c r="X342" s="13"/>
+      <c r="C342" s="22"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="23"/>
+      <c r="F342" s="23"/>
+      <c r="G342" s="23"/>
+      <c r="H342" s="23"/>
+      <c r="I342" s="23"/>
+      <c r="J342" s="23"/>
+      <c r="K342" s="23"/>
+      <c r="L342" s="23"/>
+      <c r="M342" s="23"/>
+      <c r="N342" s="23"/>
+      <c r="O342" s="23"/>
+      <c r="P342" s="23"/>
+      <c r="Q342" s="23"/>
+      <c r="R342" s="23"/>
+      <c r="S342" s="23"/>
+      <c r="T342" s="23"/>
+      <c r="U342" s="23"/>
+      <c r="V342" s="23"/>
+      <c r="W342" s="23"/>
+      <c r="X342" s="24"/>
     </row>
     <row r="343" spans="2:24">
-      <c r="C343" s="11"/>
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
-      <c r="F343" s="12"/>
-      <c r="G343" s="12"/>
-      <c r="H343" s="12"/>
-      <c r="I343" s="12"/>
-      <c r="J343" s="12"/>
-      <c r="K343" s="12"/>
-      <c r="L343" s="12"/>
-      <c r="M343" s="12"/>
-      <c r="N343" s="12"/>
-      <c r="O343" s="12"/>
-      <c r="P343" s="12"/>
-      <c r="Q343" s="12"/>
-      <c r="R343" s="12"/>
-      <c r="S343" s="12"/>
-      <c r="T343" s="12"/>
-      <c r="U343" s="12"/>
-      <c r="V343" s="12"/>
-      <c r="W343" s="12"/>
-      <c r="X343" s="13"/>
+      <c r="C343" s="22"/>
+      <c r="D343" s="23"/>
+      <c r="E343" s="23"/>
+      <c r="F343" s="23"/>
+      <c r="G343" s="23"/>
+      <c r="H343" s="23"/>
+      <c r="I343" s="23"/>
+      <c r="J343" s="23"/>
+      <c r="K343" s="23"/>
+      <c r="L343" s="23"/>
+      <c r="M343" s="23"/>
+      <c r="N343" s="23"/>
+      <c r="O343" s="23"/>
+      <c r="P343" s="23"/>
+      <c r="Q343" s="23"/>
+      <c r="R343" s="23"/>
+      <c r="S343" s="23"/>
+      <c r="T343" s="23"/>
+      <c r="U343" s="23"/>
+      <c r="V343" s="23"/>
+      <c r="W343" s="23"/>
+      <c r="X343" s="24"/>
     </row>
     <row r="344" spans="2:24">
-      <c r="C344" s="11"/>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
-      <c r="F344" s="12"/>
-      <c r="G344" s="12"/>
-      <c r="H344" s="12"/>
-      <c r="I344" s="12"/>
-      <c r="J344" s="12"/>
-      <c r="K344" s="12"/>
-      <c r="L344" s="12"/>
-      <c r="M344" s="12"/>
-      <c r="N344" s="12"/>
-      <c r="O344" s="12"/>
-      <c r="P344" s="12"/>
-      <c r="Q344" s="12"/>
-      <c r="R344" s="12"/>
-      <c r="S344" s="12"/>
-      <c r="T344" s="12"/>
-      <c r="U344" s="12"/>
-      <c r="V344" s="12"/>
-      <c r="W344" s="12"/>
-      <c r="X344" s="13"/>
+      <c r="C344" s="22"/>
+      <c r="D344" s="23"/>
+      <c r="E344" s="23"/>
+      <c r="F344" s="23"/>
+      <c r="G344" s="23"/>
+      <c r="H344" s="23"/>
+      <c r="I344" s="23"/>
+      <c r="J344" s="23"/>
+      <c r="K344" s="23"/>
+      <c r="L344" s="23"/>
+      <c r="M344" s="23"/>
+      <c r="N344" s="23"/>
+      <c r="O344" s="23"/>
+      <c r="P344" s="23"/>
+      <c r="Q344" s="23"/>
+      <c r="R344" s="23"/>
+      <c r="S344" s="23"/>
+      <c r="T344" s="23"/>
+      <c r="U344" s="23"/>
+      <c r="V344" s="23"/>
+      <c r="W344" s="23"/>
+      <c r="X344" s="24"/>
     </row>
     <row r="345" spans="2:24">
-      <c r="C345" s="11"/>
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
-      <c r="F345" s="12"/>
-      <c r="G345" s="12"/>
-      <c r="H345" s="12"/>
-      <c r="I345" s="12"/>
-      <c r="J345" s="12"/>
-      <c r="K345" s="12"/>
-      <c r="L345" s="12"/>
-      <c r="M345" s="12"/>
-      <c r="N345" s="12"/>
-      <c r="O345" s="12"/>
-      <c r="P345" s="12"/>
-      <c r="Q345" s="12"/>
-      <c r="R345" s="12"/>
-      <c r="S345" s="12"/>
-      <c r="T345" s="12"/>
-      <c r="U345" s="12"/>
-      <c r="V345" s="12"/>
-      <c r="W345" s="12"/>
-      <c r="X345" s="13"/>
+      <c r="C345" s="22"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="23"/>
+      <c r="F345" s="23"/>
+      <c r="G345" s="23"/>
+      <c r="H345" s="23"/>
+      <c r="I345" s="23"/>
+      <c r="J345" s="23"/>
+      <c r="K345" s="23"/>
+      <c r="L345" s="23"/>
+      <c r="M345" s="23"/>
+      <c r="N345" s="23"/>
+      <c r="O345" s="23"/>
+      <c r="P345" s="23"/>
+      <c r="Q345" s="23"/>
+      <c r="R345" s="23"/>
+      <c r="S345" s="23"/>
+      <c r="T345" s="23"/>
+      <c r="U345" s="23"/>
+      <c r="V345" s="23"/>
+      <c r="W345" s="23"/>
+      <c r="X345" s="24"/>
     </row>
     <row r="346" spans="2:24">
-      <c r="C346" s="11"/>
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
-      <c r="F346" s="12"/>
-      <c r="G346" s="12"/>
-      <c r="H346" s="12"/>
-      <c r="I346" s="12"/>
-      <c r="J346" s="12"/>
-      <c r="K346" s="12"/>
-      <c r="L346" s="12"/>
-      <c r="M346" s="12"/>
-      <c r="N346" s="12"/>
-      <c r="O346" s="12"/>
-      <c r="P346" s="12"/>
-      <c r="Q346" s="12"/>
-      <c r="R346" s="12"/>
-      <c r="S346" s="12"/>
-      <c r="T346" s="12"/>
-      <c r="U346" s="12"/>
-      <c r="V346" s="12"/>
-      <c r="W346" s="12"/>
-      <c r="X346" s="13"/>
+      <c r="C346" s="22"/>
+      <c r="D346" s="23"/>
+      <c r="E346" s="23"/>
+      <c r="F346" s="23"/>
+      <c r="G346" s="23"/>
+      <c r="H346" s="23"/>
+      <c r="I346" s="23"/>
+      <c r="J346" s="23"/>
+      <c r="K346" s="23"/>
+      <c r="L346" s="23"/>
+      <c r="M346" s="23"/>
+      <c r="N346" s="23"/>
+      <c r="O346" s="23"/>
+      <c r="P346" s="23"/>
+      <c r="Q346" s="23"/>
+      <c r="R346" s="23"/>
+      <c r="S346" s="23"/>
+      <c r="T346" s="23"/>
+      <c r="U346" s="23"/>
+      <c r="V346" s="23"/>
+      <c r="W346" s="23"/>
+      <c r="X346" s="24"/>
     </row>
     <row r="347" spans="2:24">
-      <c r="C347" s="11"/>
-      <c r="D347" s="12"/>
-      <c r="E347" s="12"/>
-      <c r="F347" s="12"/>
-      <c r="G347" s="12"/>
-      <c r="H347" s="12"/>
-      <c r="I347" s="12"/>
-      <c r="J347" s="12"/>
-      <c r="K347" s="12"/>
-      <c r="L347" s="12"/>
-      <c r="M347" s="12"/>
-      <c r="N347" s="12"/>
-      <c r="O347" s="12"/>
-      <c r="P347" s="12"/>
-      <c r="Q347" s="12"/>
-      <c r="R347" s="12"/>
-      <c r="S347" s="12"/>
-      <c r="T347" s="12"/>
-      <c r="U347" s="12"/>
-      <c r="V347" s="12"/>
-      <c r="W347" s="12"/>
-      <c r="X347" s="13"/>
+      <c r="C347" s="22"/>
+      <c r="D347" s="23"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="23"/>
+      <c r="G347" s="23"/>
+      <c r="H347" s="23"/>
+      <c r="I347" s="23"/>
+      <c r="J347" s="23"/>
+      <c r="K347" s="23"/>
+      <c r="L347" s="23"/>
+      <c r="M347" s="23"/>
+      <c r="N347" s="23"/>
+      <c r="O347" s="23"/>
+      <c r="P347" s="23"/>
+      <c r="Q347" s="23"/>
+      <c r="R347" s="23"/>
+      <c r="S347" s="23"/>
+      <c r="T347" s="23"/>
+      <c r="U347" s="23"/>
+      <c r="V347" s="23"/>
+      <c r="W347" s="23"/>
+      <c r="X347" s="24"/>
     </row>
     <row r="348" spans="2:24">
-      <c r="C348" s="11"/>
-      <c r="D348" s="12"/>
-      <c r="E348" s="12"/>
-      <c r="F348" s="12"/>
-      <c r="G348" s="12"/>
-      <c r="H348" s="12"/>
-      <c r="I348" s="12"/>
-      <c r="J348" s="12"/>
-      <c r="K348" s="12"/>
-      <c r="L348" s="12"/>
-      <c r="M348" s="12"/>
-      <c r="N348" s="12"/>
-      <c r="O348" s="12"/>
-      <c r="P348" s="12"/>
-      <c r="Q348" s="12"/>
-      <c r="R348" s="12"/>
-      <c r="S348" s="12"/>
-      <c r="T348" s="12"/>
-      <c r="U348" s="12"/>
-      <c r="V348" s="12"/>
-      <c r="W348" s="12"/>
-      <c r="X348" s="13"/>
+      <c r="C348" s="22"/>
+      <c r="D348" s="23"/>
+      <c r="E348" s="23"/>
+      <c r="F348" s="23"/>
+      <c r="G348" s="23"/>
+      <c r="H348" s="23"/>
+      <c r="I348" s="23"/>
+      <c r="J348" s="23"/>
+      <c r="K348" s="23"/>
+      <c r="L348" s="23"/>
+      <c r="M348" s="23"/>
+      <c r="N348" s="23"/>
+      <c r="O348" s="23"/>
+      <c r="P348" s="23"/>
+      <c r="Q348" s="23"/>
+      <c r="R348" s="23"/>
+      <c r="S348" s="23"/>
+      <c r="T348" s="23"/>
+      <c r="U348" s="23"/>
+      <c r="V348" s="23"/>
+      <c r="W348" s="23"/>
+      <c r="X348" s="24"/>
     </row>
     <row r="349" spans="2:24">
-      <c r="C349" s="11"/>
-      <c r="D349" s="12"/>
-      <c r="E349" s="12"/>
-      <c r="F349" s="12"/>
-      <c r="G349" s="12"/>
-      <c r="H349" s="12"/>
-      <c r="I349" s="12"/>
-      <c r="J349" s="12"/>
-      <c r="K349" s="12"/>
-      <c r="L349" s="12"/>
-      <c r="M349" s="12"/>
-      <c r="N349" s="12"/>
-      <c r="O349" s="12"/>
-      <c r="P349" s="12"/>
-      <c r="Q349" s="12"/>
-      <c r="R349" s="12"/>
-      <c r="S349" s="12"/>
-      <c r="T349" s="12"/>
-      <c r="U349" s="12"/>
-      <c r="V349" s="12"/>
-      <c r="W349" s="12"/>
-      <c r="X349" s="13"/>
+      <c r="C349" s="22"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="23"/>
+      <c r="F349" s="23"/>
+      <c r="G349" s="23"/>
+      <c r="H349" s="23"/>
+      <c r="I349" s="23"/>
+      <c r="J349" s="23"/>
+      <c r="K349" s="23"/>
+      <c r="L349" s="23"/>
+      <c r="M349" s="23"/>
+      <c r="N349" s="23"/>
+      <c r="O349" s="23"/>
+      <c r="P349" s="23"/>
+      <c r="Q349" s="23"/>
+      <c r="R349" s="23"/>
+      <c r="S349" s="23"/>
+      <c r="T349" s="23"/>
+      <c r="U349" s="23"/>
+      <c r="V349" s="23"/>
+      <c r="W349" s="23"/>
+      <c r="X349" s="24"/>
     </row>
     <row r="350" spans="2:24">
-      <c r="C350" s="11"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="12"/>
-      <c r="I350" s="12"/>
-      <c r="J350" s="12"/>
-      <c r="K350" s="12"/>
-      <c r="L350" s="12"/>
-      <c r="M350" s="12"/>
-      <c r="N350" s="12"/>
-      <c r="O350" s="12"/>
-      <c r="P350" s="12"/>
-      <c r="Q350" s="12"/>
-      <c r="R350" s="12"/>
-      <c r="S350" s="12"/>
-      <c r="T350" s="12"/>
-      <c r="U350" s="12"/>
-      <c r="V350" s="12"/>
-      <c r="W350" s="12"/>
-      <c r="X350" s="13"/>
+      <c r="C350" s="22"/>
+      <c r="D350" s="23"/>
+      <c r="E350" s="23"/>
+      <c r="F350" s="23"/>
+      <c r="G350" s="23"/>
+      <c r="H350" s="23"/>
+      <c r="I350" s="23"/>
+      <c r="J350" s="23"/>
+      <c r="K350" s="23"/>
+      <c r="L350" s="23"/>
+      <c r="M350" s="23"/>
+      <c r="N350" s="23"/>
+      <c r="O350" s="23"/>
+      <c r="P350" s="23"/>
+      <c r="Q350" s="23"/>
+      <c r="R350" s="23"/>
+      <c r="S350" s="23"/>
+      <c r="T350" s="23"/>
+      <c r="U350" s="23"/>
+      <c r="V350" s="23"/>
+      <c r="W350" s="23"/>
+      <c r="X350" s="24"/>
     </row>
     <row r="351" spans="2:24">
-      <c r="C351" s="11"/>
-      <c r="D351" s="12"/>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="12"/>
-      <c r="H351" s="12"/>
-      <c r="I351" s="12"/>
-      <c r="J351" s="12"/>
-      <c r="K351" s="12"/>
-      <c r="L351" s="12"/>
-      <c r="M351" s="12"/>
-      <c r="N351" s="12"/>
-      <c r="O351" s="12"/>
-      <c r="P351" s="12"/>
-      <c r="Q351" s="12"/>
-      <c r="R351" s="12"/>
-      <c r="S351" s="12"/>
-      <c r="T351" s="12"/>
-      <c r="U351" s="12"/>
-      <c r="V351" s="12"/>
-      <c r="W351" s="12"/>
-      <c r="X351" s="13"/>
+      <c r="C351" s="22"/>
+      <c r="D351" s="23"/>
+      <c r="E351" s="23"/>
+      <c r="F351" s="23"/>
+      <c r="G351" s="23"/>
+      <c r="H351" s="23"/>
+      <c r="I351" s="23"/>
+      <c r="J351" s="23"/>
+      <c r="K351" s="23"/>
+      <c r="L351" s="23"/>
+      <c r="M351" s="23"/>
+      <c r="N351" s="23"/>
+      <c r="O351" s="23"/>
+      <c r="P351" s="23"/>
+      <c r="Q351" s="23"/>
+      <c r="R351" s="23"/>
+      <c r="S351" s="23"/>
+      <c r="T351" s="23"/>
+      <c r="U351" s="23"/>
+      <c r="V351" s="23"/>
+      <c r="W351" s="23"/>
+      <c r="X351" s="24"/>
     </row>
     <row r="352" spans="2:24">
-      <c r="C352" s="11"/>
-      <c r="D352" s="12"/>
-      <c r="E352" s="12"/>
-      <c r="F352" s="12"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="12"/>
-      <c r="I352" s="12"/>
-      <c r="J352" s="12"/>
-      <c r="K352" s="12"/>
-      <c r="L352" s="12"/>
-      <c r="M352" s="12"/>
-      <c r="N352" s="12"/>
-      <c r="O352" s="12"/>
-      <c r="P352" s="12"/>
-      <c r="Q352" s="12"/>
-      <c r="R352" s="12"/>
-      <c r="S352" s="12"/>
-      <c r="T352" s="12"/>
-      <c r="U352" s="12"/>
-      <c r="V352" s="12"/>
-      <c r="W352" s="12"/>
-      <c r="X352" s="13"/>
+      <c r="C352" s="22"/>
+      <c r="D352" s="23"/>
+      <c r="E352" s="23"/>
+      <c r="F352" s="23"/>
+      <c r="G352" s="23"/>
+      <c r="H352" s="23"/>
+      <c r="I352" s="23"/>
+      <c r="J352" s="23"/>
+      <c r="K352" s="23"/>
+      <c r="L352" s="23"/>
+      <c r="M352" s="23"/>
+      <c r="N352" s="23"/>
+      <c r="O352" s="23"/>
+      <c r="P352" s="23"/>
+      <c r="Q352" s="23"/>
+      <c r="R352" s="23"/>
+      <c r="S352" s="23"/>
+      <c r="T352" s="23"/>
+      <c r="U352" s="23"/>
+      <c r="V352" s="23"/>
+      <c r="W352" s="23"/>
+      <c r="X352" s="24"/>
     </row>
     <row r="353" spans="3:24">
-      <c r="C353" s="11"/>
-      <c r="D353" s="12"/>
-      <c r="E353" s="12"/>
-      <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="12"/>
-      <c r="I353" s="12"/>
-      <c r="J353" s="12"/>
-      <c r="K353" s="12"/>
-      <c r="L353" s="12"/>
-      <c r="M353" s="12"/>
-      <c r="N353" s="12"/>
-      <c r="O353" s="12"/>
-      <c r="P353" s="12"/>
-      <c r="Q353" s="12"/>
-      <c r="R353" s="12"/>
-      <c r="S353" s="12"/>
-      <c r="T353" s="12"/>
-      <c r="U353" s="12"/>
-      <c r="V353" s="12"/>
-      <c r="W353" s="12"/>
-      <c r="X353" s="13"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="23"/>
+      <c r="F353" s="23"/>
+      <c r="G353" s="23"/>
+      <c r="H353" s="23"/>
+      <c r="I353" s="23"/>
+      <c r="J353" s="23"/>
+      <c r="K353" s="23"/>
+      <c r="L353" s="23"/>
+      <c r="M353" s="23"/>
+      <c r="N353" s="23"/>
+      <c r="O353" s="23"/>
+      <c r="P353" s="23"/>
+      <c r="Q353" s="23"/>
+      <c r="R353" s="23"/>
+      <c r="S353" s="23"/>
+      <c r="T353" s="23"/>
+      <c r="U353" s="23"/>
+      <c r="V353" s="23"/>
+      <c r="W353" s="23"/>
+      <c r="X353" s="24"/>
     </row>
     <row r="354" spans="3:24">
-      <c r="C354" s="11"/>
-      <c r="D354" s="12"/>
-      <c r="E354" s="12"/>
-      <c r="F354" s="12"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="12"/>
-      <c r="I354" s="12"/>
-      <c r="J354" s="12"/>
-      <c r="K354" s="12"/>
-      <c r="L354" s="12"/>
-      <c r="M354" s="12"/>
-      <c r="N354" s="12"/>
-      <c r="O354" s="12"/>
-      <c r="P354" s="12"/>
-      <c r="Q354" s="12"/>
-      <c r="R354" s="12"/>
-      <c r="S354" s="12"/>
-      <c r="T354" s="12"/>
-      <c r="U354" s="12"/>
-      <c r="V354" s="12"/>
-      <c r="W354" s="12"/>
-      <c r="X354" s="13"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="23"/>
+      <c r="F354" s="23"/>
+      <c r="G354" s="23"/>
+      <c r="H354" s="23"/>
+      <c r="I354" s="23"/>
+      <c r="J354" s="23"/>
+      <c r="K354" s="23"/>
+      <c r="L354" s="23"/>
+      <c r="M354" s="23"/>
+      <c r="N354" s="23"/>
+      <c r="O354" s="23"/>
+      <c r="P354" s="23"/>
+      <c r="Q354" s="23"/>
+      <c r="R354" s="23"/>
+      <c r="S354" s="23"/>
+      <c r="T354" s="23"/>
+      <c r="U354" s="23"/>
+      <c r="V354" s="23"/>
+      <c r="W354" s="23"/>
+      <c r="X354" s="24"/>
     </row>
     <row r="355" spans="3:24">
-      <c r="C355" s="11"/>
-      <c r="D355" s="12"/>
-      <c r="E355" s="12"/>
-      <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12"/>
-      <c r="I355" s="12"/>
-      <c r="J355" s="12"/>
-      <c r="K355" s="12"/>
-      <c r="L355" s="12"/>
-      <c r="M355" s="12"/>
-      <c r="N355" s="12"/>
-      <c r="O355" s="12"/>
-      <c r="P355" s="12"/>
-      <c r="Q355" s="12"/>
-      <c r="R355" s="12"/>
-      <c r="S355" s="12"/>
-      <c r="T355" s="12"/>
-      <c r="U355" s="12"/>
-      <c r="V355" s="12"/>
-      <c r="W355" s="12"/>
-      <c r="X355" s="13"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="23"/>
+      <c r="E355" s="23"/>
+      <c r="F355" s="23"/>
+      <c r="G355" s="23"/>
+      <c r="H355" s="23"/>
+      <c r="I355" s="23"/>
+      <c r="J355" s="23"/>
+      <c r="K355" s="23"/>
+      <c r="L355" s="23"/>
+      <c r="M355" s="23"/>
+      <c r="N355" s="23"/>
+      <c r="O355" s="23"/>
+      <c r="P355" s="23"/>
+      <c r="Q355" s="23"/>
+      <c r="R355" s="23"/>
+      <c r="S355" s="23"/>
+      <c r="T355" s="23"/>
+      <c r="U355" s="23"/>
+      <c r="V355" s="23"/>
+      <c r="W355" s="23"/>
+      <c r="X355" s="24"/>
     </row>
     <row r="356" spans="3:24">
-      <c r="C356" s="11"/>
-      <c r="D356" s="12"/>
-      <c r="E356" s="12"/>
-      <c r="F356" s="12"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12"/>
-      <c r="I356" s="12"/>
-      <c r="J356" s="12"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
-      <c r="M356" s="12"/>
-      <c r="N356" s="12"/>
-      <c r="O356" s="12"/>
-      <c r="P356" s="12"/>
-      <c r="Q356" s="12"/>
-      <c r="R356" s="12"/>
-      <c r="S356" s="12"/>
-      <c r="T356" s="12"/>
-      <c r="U356" s="12"/>
-      <c r="V356" s="12"/>
-      <c r="W356" s="12"/>
-      <c r="X356" s="13"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="23"/>
+      <c r="E356" s="23"/>
+      <c r="F356" s="23"/>
+      <c r="G356" s="23"/>
+      <c r="H356" s="23"/>
+      <c r="I356" s="23"/>
+      <c r="J356" s="23"/>
+      <c r="K356" s="23"/>
+      <c r="L356" s="23"/>
+      <c r="M356" s="23"/>
+      <c r="N356" s="23"/>
+      <c r="O356" s="23"/>
+      <c r="P356" s="23"/>
+      <c r="Q356" s="23"/>
+      <c r="R356" s="23"/>
+      <c r="S356" s="23"/>
+      <c r="T356" s="23"/>
+      <c r="U356" s="23"/>
+      <c r="V356" s="23"/>
+      <c r="W356" s="23"/>
+      <c r="X356" s="24"/>
     </row>
     <row r="357" spans="3:24">
-      <c r="C357" s="11"/>
-      <c r="D357" s="12"/>
-      <c r="E357" s="12"/>
-      <c r="F357" s="12"/>
-      <c r="G357" s="12"/>
-      <c r="H357" s="12"/>
-      <c r="I357" s="12"/>
-      <c r="J357" s="12"/>
-      <c r="K357" s="12"/>
-      <c r="L357" s="12"/>
-      <c r="M357" s="12"/>
-      <c r="N357" s="12"/>
-      <c r="O357" s="12"/>
-      <c r="P357" s="12"/>
-      <c r="Q357" s="12"/>
-      <c r="R357" s="12"/>
-      <c r="S357" s="12"/>
-      <c r="T357" s="12"/>
-      <c r="U357" s="12"/>
-      <c r="V357" s="12"/>
-      <c r="W357" s="12"/>
-      <c r="X357" s="13"/>
+      <c r="C357" s="22"/>
+      <c r="D357" s="23"/>
+      <c r="E357" s="23"/>
+      <c r="F357" s="23"/>
+      <c r="G357" s="23"/>
+      <c r="H357" s="23"/>
+      <c r="I357" s="23"/>
+      <c r="J357" s="23"/>
+      <c r="K357" s="23"/>
+      <c r="L357" s="23"/>
+      <c r="M357" s="23"/>
+      <c r="N357" s="23"/>
+      <c r="O357" s="23"/>
+      <c r="P357" s="23"/>
+      <c r="Q357" s="23"/>
+      <c r="R357" s="23"/>
+      <c r="S357" s="23"/>
+      <c r="T357" s="23"/>
+      <c r="U357" s="23"/>
+      <c r="V357" s="23"/>
+      <c r="W357" s="23"/>
+      <c r="X357" s="24"/>
     </row>
     <row r="358" spans="3:24">
-      <c r="C358" s="11"/>
-      <c r="D358" s="12"/>
-      <c r="E358" s="12"/>
-      <c r="F358" s="12"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="12"/>
-      <c r="I358" s="12"/>
-      <c r="J358" s="12"/>
-      <c r="K358" s="12"/>
-      <c r="L358" s="12"/>
-      <c r="M358" s="12"/>
-      <c r="N358" s="12"/>
-      <c r="O358" s="12"/>
-      <c r="P358" s="12"/>
-      <c r="Q358" s="12"/>
-      <c r="R358" s="12"/>
-      <c r="S358" s="12"/>
-      <c r="T358" s="12"/>
-      <c r="U358" s="12"/>
-      <c r="V358" s="12"/>
-      <c r="W358" s="12"/>
-      <c r="X358" s="13"/>
+      <c r="C358" s="22"/>
+      <c r="D358" s="23"/>
+      <c r="E358" s="23"/>
+      <c r="F358" s="23"/>
+      <c r="G358" s="23"/>
+      <c r="H358" s="23"/>
+      <c r="I358" s="23"/>
+      <c r="J358" s="23"/>
+      <c r="K358" s="23"/>
+      <c r="L358" s="23"/>
+      <c r="M358" s="23"/>
+      <c r="N358" s="23"/>
+      <c r="O358" s="23"/>
+      <c r="P358" s="23"/>
+      <c r="Q358" s="23"/>
+      <c r="R358" s="23"/>
+      <c r="S358" s="23"/>
+      <c r="T358" s="23"/>
+      <c r="U358" s="23"/>
+      <c r="V358" s="23"/>
+      <c r="W358" s="23"/>
+      <c r="X358" s="24"/>
     </row>
     <row r="359" spans="3:24">
-      <c r="C359" s="11"/>
-      <c r="D359" s="12"/>
-      <c r="E359" s="12"/>
-      <c r="F359" s="12"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="12"/>
-      <c r="I359" s="12"/>
-      <c r="J359" s="12"/>
-      <c r="K359" s="12"/>
-      <c r="L359" s="12"/>
-      <c r="M359" s="12"/>
-      <c r="N359" s="12"/>
-      <c r="O359" s="12"/>
-      <c r="P359" s="12"/>
-      <c r="Q359" s="12"/>
-      <c r="R359" s="12"/>
-      <c r="S359" s="12"/>
-      <c r="T359" s="12"/>
-      <c r="U359" s="12"/>
-      <c r="V359" s="12"/>
-      <c r="W359" s="12"/>
-      <c r="X359" s="13"/>
+      <c r="C359" s="22"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="23"/>
+      <c r="F359" s="23"/>
+      <c r="G359" s="23"/>
+      <c r="H359" s="23"/>
+      <c r="I359" s="23"/>
+      <c r="J359" s="23"/>
+      <c r="K359" s="23"/>
+      <c r="L359" s="23"/>
+      <c r="M359" s="23"/>
+      <c r="N359" s="23"/>
+      <c r="O359" s="23"/>
+      <c r="P359" s="23"/>
+      <c r="Q359" s="23"/>
+      <c r="R359" s="23"/>
+      <c r="S359" s="23"/>
+      <c r="T359" s="23"/>
+      <c r="U359" s="23"/>
+      <c r="V359" s="23"/>
+      <c r="W359" s="23"/>
+      <c r="X359" s="24"/>
     </row>
     <row r="360" spans="3:24">
-      <c r="C360" s="11"/>
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
-      <c r="F360" s="12"/>
-      <c r="G360" s="12"/>
-      <c r="H360" s="12"/>
-      <c r="I360" s="12"/>
-      <c r="J360" s="12"/>
-      <c r="K360" s="12"/>
-      <c r="L360" s="12"/>
-      <c r="M360" s="12"/>
-      <c r="N360" s="12"/>
-      <c r="O360" s="12"/>
-      <c r="P360" s="12"/>
-      <c r="Q360" s="12"/>
-      <c r="R360" s="12"/>
-      <c r="S360" s="12"/>
-      <c r="T360" s="12"/>
-      <c r="U360" s="12"/>
-      <c r="V360" s="12"/>
-      <c r="W360" s="12"/>
-      <c r="X360" s="13"/>
+      <c r="C360" s="22"/>
+      <c r="D360" s="23"/>
+      <c r="E360" s="23"/>
+      <c r="F360" s="23"/>
+      <c r="G360" s="23"/>
+      <c r="H360" s="23"/>
+      <c r="I360" s="23"/>
+      <c r="J360" s="23"/>
+      <c r="K360" s="23"/>
+      <c r="L360" s="23"/>
+      <c r="M360" s="23"/>
+      <c r="N360" s="23"/>
+      <c r="O360" s="23"/>
+      <c r="P360" s="23"/>
+      <c r="Q360" s="23"/>
+      <c r="R360" s="23"/>
+      <c r="S360" s="23"/>
+      <c r="T360" s="23"/>
+      <c r="U360" s="23"/>
+      <c r="V360" s="23"/>
+      <c r="W360" s="23"/>
+      <c r="X360" s="24"/>
     </row>
     <row r="361" spans="3:24">
-      <c r="C361" s="11"/>
-      <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
-      <c r="F361" s="12"/>
-      <c r="G361" s="12"/>
-      <c r="H361" s="12"/>
-      <c r="I361" s="12"/>
-      <c r="J361" s="12"/>
-      <c r="K361" s="12"/>
-      <c r="L361" s="12"/>
-      <c r="M361" s="12"/>
-      <c r="N361" s="12"/>
-      <c r="O361" s="12"/>
-      <c r="P361" s="12"/>
-      <c r="Q361" s="12"/>
-      <c r="R361" s="12"/>
-      <c r="S361" s="12"/>
-      <c r="T361" s="12"/>
-      <c r="U361" s="12"/>
-      <c r="V361" s="12"/>
-      <c r="W361" s="12"/>
-      <c r="X361" s="13"/>
+      <c r="C361" s="22"/>
+      <c r="D361" s="23"/>
+      <c r="E361" s="23"/>
+      <c r="F361" s="23"/>
+      <c r="G361" s="23"/>
+      <c r="H361" s="23"/>
+      <c r="I361" s="23"/>
+      <c r="J361" s="23"/>
+      <c r="K361" s="23"/>
+      <c r="L361" s="23"/>
+      <c r="M361" s="23"/>
+      <c r="N361" s="23"/>
+      <c r="O361" s="23"/>
+      <c r="P361" s="23"/>
+      <c r="Q361" s="23"/>
+      <c r="R361" s="23"/>
+      <c r="S361" s="23"/>
+      <c r="T361" s="23"/>
+      <c r="U361" s="23"/>
+      <c r="V361" s="23"/>
+      <c r="W361" s="23"/>
+      <c r="X361" s="24"/>
     </row>
     <row r="362" spans="3:24">
-      <c r="C362" s="11"/>
-      <c r="D362" s="12"/>
-      <c r="E362" s="12"/>
-      <c r="F362" s="12"/>
-      <c r="G362" s="12"/>
-      <c r="H362" s="12"/>
-      <c r="I362" s="12"/>
-      <c r="J362" s="12"/>
-      <c r="K362" s="12"/>
-      <c r="L362" s="12"/>
-      <c r="M362" s="12"/>
-      <c r="N362" s="12"/>
-      <c r="O362" s="12"/>
-      <c r="P362" s="12"/>
-      <c r="Q362" s="12"/>
-      <c r="R362" s="12"/>
-      <c r="S362" s="12"/>
-      <c r="T362" s="12"/>
-      <c r="U362" s="12"/>
-      <c r="V362" s="12"/>
-      <c r="W362" s="12"/>
-      <c r="X362" s="13"/>
+      <c r="C362" s="22"/>
+      <c r="D362" s="23"/>
+      <c r="E362" s="23"/>
+      <c r="F362" s="23"/>
+      <c r="G362" s="23"/>
+      <c r="H362" s="23"/>
+      <c r="I362" s="23"/>
+      <c r="J362" s="23"/>
+      <c r="K362" s="23"/>
+      <c r="L362" s="23"/>
+      <c r="M362" s="23"/>
+      <c r="N362" s="23"/>
+      <c r="O362" s="23"/>
+      <c r="P362" s="23"/>
+      <c r="Q362" s="23"/>
+      <c r="R362" s="23"/>
+      <c r="S362" s="23"/>
+      <c r="T362" s="23"/>
+      <c r="U362" s="23"/>
+      <c r="V362" s="23"/>
+      <c r="W362" s="23"/>
+      <c r="X362" s="24"/>
     </row>
     <row r="363" spans="3:24">
-      <c r="C363" s="11"/>
-      <c r="D363" s="12"/>
-      <c r="E363" s="12"/>
-      <c r="F363" s="12"/>
-      <c r="G363" s="12"/>
-      <c r="H363" s="12"/>
-      <c r="I363" s="12"/>
-      <c r="J363" s="12"/>
-      <c r="K363" s="12"/>
-      <c r="L363" s="12"/>
-      <c r="M363" s="12"/>
-      <c r="N363" s="12"/>
-      <c r="O363" s="12"/>
-      <c r="P363" s="12"/>
-      <c r="Q363" s="12"/>
-      <c r="R363" s="12"/>
-      <c r="S363" s="12"/>
-      <c r="T363" s="12"/>
-      <c r="U363" s="12"/>
-      <c r="V363" s="12"/>
-      <c r="W363" s="12"/>
-      <c r="X363" s="13"/>
+      <c r="C363" s="22"/>
+      <c r="D363" s="23"/>
+      <c r="E363" s="23"/>
+      <c r="F363" s="23"/>
+      <c r="G363" s="23"/>
+      <c r="H363" s="23"/>
+      <c r="I363" s="23"/>
+      <c r="J363" s="23"/>
+      <c r="K363" s="23"/>
+      <c r="L363" s="23"/>
+      <c r="M363" s="23"/>
+      <c r="N363" s="23"/>
+      <c r="O363" s="23"/>
+      <c r="P363" s="23"/>
+      <c r="Q363" s="23"/>
+      <c r="R363" s="23"/>
+      <c r="S363" s="23"/>
+      <c r="T363" s="23"/>
+      <c r="U363" s="23"/>
+      <c r="V363" s="23"/>
+      <c r="W363" s="23"/>
+      <c r="X363" s="24"/>
     </row>
     <row r="364" spans="3:24">
-      <c r="C364" s="11"/>
-      <c r="D364" s="12"/>
-      <c r="E364" s="12"/>
-      <c r="F364" s="12"/>
-      <c r="G364" s="12"/>
-      <c r="H364" s="12"/>
-      <c r="I364" s="12"/>
-      <c r="J364" s="12"/>
-      <c r="K364" s="12"/>
-      <c r="L364" s="12"/>
-      <c r="M364" s="12"/>
-      <c r="N364" s="12"/>
-      <c r="O364" s="12"/>
-      <c r="P364" s="12"/>
-      <c r="Q364" s="12"/>
-      <c r="R364" s="12"/>
-      <c r="S364" s="12"/>
-      <c r="T364" s="12"/>
-      <c r="U364" s="12"/>
-      <c r="V364" s="12"/>
-      <c r="W364" s="12"/>
-      <c r="X364" s="13"/>
+      <c r="C364" s="22"/>
+      <c r="D364" s="23"/>
+      <c r="E364" s="23"/>
+      <c r="F364" s="23"/>
+      <c r="G364" s="23"/>
+      <c r="H364" s="23"/>
+      <c r="I364" s="23"/>
+      <c r="J364" s="23"/>
+      <c r="K364" s="23"/>
+      <c r="L364" s="23"/>
+      <c r="M364" s="23"/>
+      <c r="N364" s="23"/>
+      <c r="O364" s="23"/>
+      <c r="P364" s="23"/>
+      <c r="Q364" s="23"/>
+      <c r="R364" s="23"/>
+      <c r="S364" s="23"/>
+      <c r="T364" s="23"/>
+      <c r="U364" s="23"/>
+      <c r="V364" s="23"/>
+      <c r="W364" s="23"/>
+      <c r="X364" s="24"/>
     </row>
     <row r="365" spans="3:24">
-      <c r="C365" s="11"/>
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
-      <c r="H365" s="12"/>
-      <c r="I365" s="12"/>
-      <c r="J365" s="12"/>
-      <c r="K365" s="12"/>
-      <c r="L365" s="12"/>
-      <c r="M365" s="12"/>
-      <c r="N365" s="12"/>
-      <c r="O365" s="12"/>
-      <c r="P365" s="12"/>
-      <c r="Q365" s="12"/>
-      <c r="R365" s="12"/>
-      <c r="S365" s="12"/>
-      <c r="T365" s="12"/>
-      <c r="U365" s="12"/>
-      <c r="V365" s="12"/>
-      <c r="W365" s="12"/>
-      <c r="X365" s="13"/>
+      <c r="C365" s="22"/>
+      <c r="D365" s="23"/>
+      <c r="E365" s="23"/>
+      <c r="F365" s="23"/>
+      <c r="G365" s="23"/>
+      <c r="H365" s="23"/>
+      <c r="I365" s="23"/>
+      <c r="J365" s="23"/>
+      <c r="K365" s="23"/>
+      <c r="L365" s="23"/>
+      <c r="M365" s="23"/>
+      <c r="N365" s="23"/>
+      <c r="O365" s="23"/>
+      <c r="P365" s="23"/>
+      <c r="Q365" s="23"/>
+      <c r="R365" s="23"/>
+      <c r="S365" s="23"/>
+      <c r="T365" s="23"/>
+      <c r="U365" s="23"/>
+      <c r="V365" s="23"/>
+      <c r="W365" s="23"/>
+      <c r="X365" s="24"/>
     </row>
     <row r="366" spans="3:24">
-      <c r="C366" s="11"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="12"/>
-      <c r="I366" s="12"/>
-      <c r="J366" s="12"/>
-      <c r="K366" s="12"/>
-      <c r="L366" s="12"/>
-      <c r="M366" s="12"/>
-      <c r="N366" s="12"/>
-      <c r="O366" s="12"/>
-      <c r="P366" s="12"/>
-      <c r="Q366" s="12"/>
-      <c r="R366" s="12"/>
-      <c r="S366" s="12"/>
-      <c r="T366" s="12"/>
-      <c r="U366" s="12"/>
-      <c r="V366" s="12"/>
-      <c r="W366" s="12"/>
-      <c r="X366" s="13"/>
+      <c r="C366" s="22"/>
+      <c r="D366" s="23"/>
+      <c r="E366" s="23"/>
+      <c r="F366" s="23"/>
+      <c r="G366" s="23"/>
+      <c r="H366" s="23"/>
+      <c r="I366" s="23"/>
+      <c r="J366" s="23"/>
+      <c r="K366" s="23"/>
+      <c r="L366" s="23"/>
+      <c r="M366" s="23"/>
+      <c r="N366" s="23"/>
+      <c r="O366" s="23"/>
+      <c r="P366" s="23"/>
+      <c r="Q366" s="23"/>
+      <c r="R366" s="23"/>
+      <c r="S366" s="23"/>
+      <c r="T366" s="23"/>
+      <c r="U366" s="23"/>
+      <c r="V366" s="23"/>
+      <c r="W366" s="23"/>
+      <c r="X366" s="24"/>
     </row>
     <row r="367" spans="3:24">
-      <c r="C367" s="11"/>
-      <c r="D367" s="12"/>
-      <c r="E367" s="12"/>
-      <c r="F367" s="12"/>
-      <c r="G367" s="12"/>
-      <c r="H367" s="12"/>
-      <c r="I367" s="12"/>
-      <c r="J367" s="12"/>
-      <c r="K367" s="12"/>
-      <c r="L367" s="12"/>
-      <c r="M367" s="12"/>
-      <c r="N367" s="12"/>
-      <c r="O367" s="12"/>
-      <c r="P367" s="12"/>
-      <c r="Q367" s="12"/>
-      <c r="R367" s="12"/>
-      <c r="S367" s="12"/>
-      <c r="T367" s="12"/>
-      <c r="U367" s="12"/>
-      <c r="V367" s="12"/>
-      <c r="W367" s="12"/>
-      <c r="X367" s="13"/>
+      <c r="C367" s="22"/>
+      <c r="D367" s="23"/>
+      <c r="E367" s="23"/>
+      <c r="F367" s="23"/>
+      <c r="G367" s="23"/>
+      <c r="H367" s="23"/>
+      <c r="I367" s="23"/>
+      <c r="J367" s="23"/>
+      <c r="K367" s="23"/>
+      <c r="L367" s="23"/>
+      <c r="M367" s="23"/>
+      <c r="N367" s="23"/>
+      <c r="O367" s="23"/>
+      <c r="P367" s="23"/>
+      <c r="Q367" s="23"/>
+      <c r="R367" s="23"/>
+      <c r="S367" s="23"/>
+      <c r="T367" s="23"/>
+      <c r="U367" s="23"/>
+      <c r="V367" s="23"/>
+      <c r="W367" s="23"/>
+      <c r="X367" s="24"/>
     </row>
     <row r="368" spans="3:24">
-      <c r="C368" s="11"/>
-      <c r="D368" s="12"/>
-      <c r="E368" s="12"/>
-      <c r="F368" s="12"/>
-      <c r="G368" s="12"/>
-      <c r="H368" s="12"/>
-      <c r="I368" s="12"/>
-      <c r="J368" s="12"/>
-      <c r="K368" s="12"/>
-      <c r="L368" s="12"/>
-      <c r="M368" s="12"/>
-      <c r="N368" s="12"/>
-      <c r="O368" s="12"/>
-      <c r="P368" s="12"/>
-      <c r="Q368" s="12"/>
-      <c r="R368" s="12"/>
-      <c r="S368" s="12"/>
-      <c r="T368" s="12"/>
-      <c r="U368" s="12"/>
-      <c r="V368" s="12"/>
-      <c r="W368" s="12"/>
-      <c r="X368" s="13"/>
+      <c r="C368" s="22"/>
+      <c r="D368" s="23"/>
+      <c r="E368" s="23"/>
+      <c r="F368" s="23"/>
+      <c r="G368" s="23"/>
+      <c r="H368" s="23"/>
+      <c r="I368" s="23"/>
+      <c r="J368" s="23"/>
+      <c r="K368" s="23"/>
+      <c r="L368" s="23"/>
+      <c r="M368" s="23"/>
+      <c r="N368" s="23"/>
+      <c r="O368" s="23"/>
+      <c r="P368" s="23"/>
+      <c r="Q368" s="23"/>
+      <c r="R368" s="23"/>
+      <c r="S368" s="23"/>
+      <c r="T368" s="23"/>
+      <c r="U368" s="23"/>
+      <c r="V368" s="23"/>
+      <c r="W368" s="23"/>
+      <c r="X368" s="24"/>
     </row>
     <row r="369" spans="2:24">
-      <c r="C369" s="11"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
-      <c r="F369" s="12"/>
-      <c r="G369" s="12"/>
-      <c r="H369" s="12"/>
-      <c r="I369" s="12"/>
-      <c r="J369" s="12"/>
-      <c r="K369" s="12"/>
-      <c r="L369" s="12"/>
-      <c r="M369" s="12"/>
-      <c r="N369" s="12"/>
-      <c r="O369" s="12"/>
-      <c r="P369" s="12"/>
-      <c r="Q369" s="12"/>
-      <c r="R369" s="12"/>
-      <c r="S369" s="12"/>
-      <c r="T369" s="12"/>
-      <c r="U369" s="12"/>
-      <c r="V369" s="12"/>
-      <c r="W369" s="12"/>
-      <c r="X369" s="13"/>
+      <c r="C369" s="22"/>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23"/>
+      <c r="F369" s="23"/>
+      <c r="G369" s="23"/>
+      <c r="H369" s="23"/>
+      <c r="I369" s="23"/>
+      <c r="J369" s="23"/>
+      <c r="K369" s="23"/>
+      <c r="L369" s="23"/>
+      <c r="M369" s="23"/>
+      <c r="N369" s="23"/>
+      <c r="O369" s="23"/>
+      <c r="P369" s="23"/>
+      <c r="Q369" s="23"/>
+      <c r="R369" s="23"/>
+      <c r="S369" s="23"/>
+      <c r="T369" s="23"/>
+      <c r="U369" s="23"/>
+      <c r="V369" s="23"/>
+      <c r="W369" s="23"/>
+      <c r="X369" s="24"/>
     </row>
     <row r="370" spans="2:24">
-      <c r="C370" s="11"/>
-      <c r="D370" s="12"/>
-      <c r="E370" s="12"/>
-      <c r="F370" s="12"/>
-      <c r="G370" s="12"/>
-      <c r="H370" s="12"/>
-      <c r="I370" s="12"/>
-      <c r="J370" s="12"/>
-      <c r="K370" s="12"/>
-      <c r="L370" s="12"/>
-      <c r="M370" s="12"/>
-      <c r="N370" s="12"/>
-      <c r="O370" s="12"/>
-      <c r="P370" s="12"/>
-      <c r="Q370" s="12"/>
-      <c r="R370" s="12"/>
-      <c r="S370" s="12"/>
-      <c r="T370" s="12"/>
-      <c r="U370" s="12"/>
-      <c r="V370" s="12"/>
-      <c r="W370" s="12"/>
-      <c r="X370" s="13"/>
+      <c r="C370" s="22"/>
+      <c r="D370" s="23"/>
+      <c r="E370" s="23"/>
+      <c r="F370" s="23"/>
+      <c r="G370" s="23"/>
+      <c r="H370" s="23"/>
+      <c r="I370" s="23"/>
+      <c r="J370" s="23"/>
+      <c r="K370" s="23"/>
+      <c r="L370" s="23"/>
+      <c r="M370" s="23"/>
+      <c r="N370" s="23"/>
+      <c r="O370" s="23"/>
+      <c r="P370" s="23"/>
+      <c r="Q370" s="23"/>
+      <c r="R370" s="23"/>
+      <c r="S370" s="23"/>
+      <c r="T370" s="23"/>
+      <c r="U370" s="23"/>
+      <c r="V370" s="23"/>
+      <c r="W370" s="23"/>
+      <c r="X370" s="24"/>
     </row>
     <row r="371" spans="2:24">
-      <c r="C371" s="11"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="12"/>
-      <c r="F371" s="12"/>
-      <c r="G371" s="12"/>
-      <c r="H371" s="12"/>
-      <c r="I371" s="12"/>
-      <c r="J371" s="12"/>
-      <c r="K371" s="12"/>
-      <c r="L371" s="12"/>
-      <c r="M371" s="12"/>
-      <c r="N371" s="12"/>
-      <c r="O371" s="12"/>
-      <c r="P371" s="12"/>
-      <c r="Q371" s="12"/>
-      <c r="R371" s="12"/>
-      <c r="S371" s="12"/>
-      <c r="T371" s="12"/>
-      <c r="U371" s="12"/>
-      <c r="V371" s="12"/>
-      <c r="W371" s="12"/>
-      <c r="X371" s="13"/>
+      <c r="C371" s="22"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
+      <c r="F371" s="23"/>
+      <c r="G371" s="23"/>
+      <c r="H371" s="23"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="23"/>
+      <c r="K371" s="23"/>
+      <c r="L371" s="23"/>
+      <c r="M371" s="23"/>
+      <c r="N371" s="23"/>
+      <c r="O371" s="23"/>
+      <c r="P371" s="23"/>
+      <c r="Q371" s="23"/>
+      <c r="R371" s="23"/>
+      <c r="S371" s="23"/>
+      <c r="T371" s="23"/>
+      <c r="U371" s="23"/>
+      <c r="V371" s="23"/>
+      <c r="W371" s="23"/>
+      <c r="X371" s="24"/>
     </row>
     <row r="372" spans="2:24">
-      <c r="C372" s="11"/>
-      <c r="D372" s="12"/>
-      <c r="E372" s="12"/>
-      <c r="F372" s="12"/>
-      <c r="G372" s="12"/>
-      <c r="H372" s="12"/>
-      <c r="I372" s="12"/>
-      <c r="J372" s="12"/>
-      <c r="K372" s="12"/>
-      <c r="L372" s="12"/>
-      <c r="M372" s="12"/>
-      <c r="N372" s="12"/>
-      <c r="O372" s="12"/>
-      <c r="P372" s="12"/>
-      <c r="Q372" s="12"/>
-      <c r="R372" s="12"/>
-      <c r="S372" s="12"/>
-      <c r="T372" s="12"/>
-      <c r="U372" s="12"/>
-      <c r="V372" s="12"/>
-      <c r="W372" s="12"/>
-      <c r="X372" s="13"/>
+      <c r="C372" s="22"/>
+      <c r="D372" s="23"/>
+      <c r="E372" s="23"/>
+      <c r="F372" s="23"/>
+      <c r="G372" s="23"/>
+      <c r="H372" s="23"/>
+      <c r="I372" s="23"/>
+      <c r="J372" s="23"/>
+      <c r="K372" s="23"/>
+      <c r="L372" s="23"/>
+      <c r="M372" s="23"/>
+      <c r="N372" s="23"/>
+      <c r="O372" s="23"/>
+      <c r="P372" s="23"/>
+      <c r="Q372" s="23"/>
+      <c r="R372" s="23"/>
+      <c r="S372" s="23"/>
+      <c r="T372" s="23"/>
+      <c r="U372" s="23"/>
+      <c r="V372" s="23"/>
+      <c r="W372" s="23"/>
+      <c r="X372" s="24"/>
     </row>
     <row r="373" spans="2:24">
-      <c r="C373" s="11"/>
-      <c r="D373" s="12"/>
-      <c r="E373" s="12"/>
-      <c r="F373" s="12"/>
-      <c r="G373" s="12"/>
-      <c r="H373" s="12"/>
-      <c r="I373" s="12"/>
-      <c r="J373" s="12"/>
-      <c r="K373" s="12"/>
-      <c r="L373" s="12"/>
-      <c r="M373" s="12"/>
-      <c r="N373" s="12"/>
-      <c r="O373" s="12"/>
-      <c r="P373" s="12"/>
-      <c r="Q373" s="12"/>
-      <c r="R373" s="12"/>
-      <c r="S373" s="12"/>
-      <c r="T373" s="12"/>
-      <c r="U373" s="12"/>
-      <c r="V373" s="12"/>
-      <c r="W373" s="12"/>
-      <c r="X373" s="13"/>
+      <c r="C373" s="22"/>
+      <c r="D373" s="23"/>
+      <c r="E373" s="23"/>
+      <c r="F373" s="23"/>
+      <c r="G373" s="23"/>
+      <c r="H373" s="23"/>
+      <c r="I373" s="23"/>
+      <c r="J373" s="23"/>
+      <c r="K373" s="23"/>
+      <c r="L373" s="23"/>
+      <c r="M373" s="23"/>
+      <c r="N373" s="23"/>
+      <c r="O373" s="23"/>
+      <c r="P373" s="23"/>
+      <c r="Q373" s="23"/>
+      <c r="R373" s="23"/>
+      <c r="S373" s="23"/>
+      <c r="T373" s="23"/>
+      <c r="U373" s="23"/>
+      <c r="V373" s="23"/>
+      <c r="W373" s="23"/>
+      <c r="X373" s="24"/>
     </row>
     <row r="374" spans="2:24">
-      <c r="C374" s="11"/>
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="12"/>
-      <c r="G374" s="12"/>
-      <c r="H374" s="12"/>
-      <c r="I374" s="12"/>
-      <c r="J374" s="12"/>
-      <c r="K374" s="12"/>
-      <c r="L374" s="12"/>
-      <c r="M374" s="12"/>
-      <c r="N374" s="12"/>
-      <c r="O374" s="12"/>
-      <c r="P374" s="12"/>
-      <c r="Q374" s="12"/>
-      <c r="R374" s="12"/>
-      <c r="S374" s="12"/>
-      <c r="T374" s="12"/>
-      <c r="U374" s="12"/>
-      <c r="V374" s="12"/>
-      <c r="W374" s="12"/>
-      <c r="X374" s="13"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="23"/>
+      <c r="E374" s="23"/>
+      <c r="F374" s="23"/>
+      <c r="G374" s="23"/>
+      <c r="H374" s="23"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="23"/>
+      <c r="K374" s="23"/>
+      <c r="L374" s="23"/>
+      <c r="M374" s="23"/>
+      <c r="N374" s="23"/>
+      <c r="O374" s="23"/>
+      <c r="P374" s="23"/>
+      <c r="Q374" s="23"/>
+      <c r="R374" s="23"/>
+      <c r="S374" s="23"/>
+      <c r="T374" s="23"/>
+      <c r="U374" s="23"/>
+      <c r="V374" s="23"/>
+      <c r="W374" s="23"/>
+      <c r="X374" s="24"/>
     </row>
     <row r="375" spans="2:24">
-      <c r="C375" s="11"/>
-      <c r="D375" s="12"/>
-      <c r="E375" s="12"/>
-      <c r="F375" s="12"/>
-      <c r="G375" s="12"/>
-      <c r="H375" s="12"/>
-      <c r="I375" s="12"/>
-      <c r="J375" s="12"/>
-      <c r="K375" s="12"/>
-      <c r="L375" s="12"/>
-      <c r="M375" s="12"/>
-      <c r="N375" s="12"/>
-      <c r="O375" s="12"/>
-      <c r="P375" s="12"/>
-      <c r="Q375" s="12"/>
-      <c r="R375" s="12"/>
-      <c r="S375" s="12"/>
-      <c r="T375" s="12"/>
-      <c r="U375" s="12"/>
-      <c r="V375" s="12"/>
-      <c r="W375" s="12"/>
-      <c r="X375" s="13"/>
+      <c r="C375" s="22"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="23"/>
+      <c r="F375" s="23"/>
+      <c r="G375" s="23"/>
+      <c r="H375" s="23"/>
+      <c r="I375" s="23"/>
+      <c r="J375" s="23"/>
+      <c r="K375" s="23"/>
+      <c r="L375" s="23"/>
+      <c r="M375" s="23"/>
+      <c r="N375" s="23"/>
+      <c r="O375" s="23"/>
+      <c r="P375" s="23"/>
+      <c r="Q375" s="23"/>
+      <c r="R375" s="23"/>
+      <c r="S375" s="23"/>
+      <c r="T375" s="23"/>
+      <c r="U375" s="23"/>
+      <c r="V375" s="23"/>
+      <c r="W375" s="23"/>
+      <c r="X375" s="24"/>
     </row>
     <row r="376" spans="2:24">
-      <c r="C376" s="11"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="12"/>
-      <c r="G376" s="12"/>
-      <c r="H376" s="12"/>
-      <c r="I376" s="12"/>
-      <c r="J376" s="12"/>
-      <c r="K376" s="12"/>
-      <c r="L376" s="12"/>
-      <c r="M376" s="12"/>
-      <c r="N376" s="12"/>
-      <c r="O376" s="12"/>
-      <c r="P376" s="12"/>
-      <c r="Q376" s="12"/>
-      <c r="R376" s="12"/>
-      <c r="S376" s="12"/>
-      <c r="T376" s="12"/>
-      <c r="U376" s="12"/>
-      <c r="V376" s="12"/>
-      <c r="W376" s="12"/>
-      <c r="X376" s="13"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="23"/>
+      <c r="E376" s="23"/>
+      <c r="F376" s="23"/>
+      <c r="G376" s="23"/>
+      <c r="H376" s="23"/>
+      <c r="I376" s="23"/>
+      <c r="J376" s="23"/>
+      <c r="K376" s="23"/>
+      <c r="L376" s="23"/>
+      <c r="M376" s="23"/>
+      <c r="N376" s="23"/>
+      <c r="O376" s="23"/>
+      <c r="P376" s="23"/>
+      <c r="Q376" s="23"/>
+      <c r="R376" s="23"/>
+      <c r="S376" s="23"/>
+      <c r="T376" s="23"/>
+      <c r="U376" s="23"/>
+      <c r="V376" s="23"/>
+      <c r="W376" s="23"/>
+      <c r="X376" s="24"/>
     </row>
     <row r="377" spans="2:24" ht="21" thickBot="1">
-      <c r="C377" s="14"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="15"/>
-      <c r="I377" s="15"/>
-      <c r="J377" s="15"/>
-      <c r="K377" s="15"/>
-      <c r="L377" s="15"/>
-      <c r="M377" s="15"/>
-      <c r="N377" s="15"/>
-      <c r="O377" s="15"/>
-      <c r="P377" s="15"/>
-      <c r="Q377" s="15"/>
-      <c r="R377" s="15"/>
-      <c r="S377" s="15"/>
-      <c r="T377" s="15"/>
-      <c r="U377" s="15"/>
-      <c r="V377" s="15"/>
-      <c r="W377" s="15"/>
-      <c r="X377" s="16"/>
+      <c r="C377" s="25"/>
+      <c r="D377" s="26"/>
+      <c r="E377" s="26"/>
+      <c r="F377" s="26"/>
+      <c r="G377" s="26"/>
+      <c r="H377" s="26"/>
+      <c r="I377" s="26"/>
+      <c r="J377" s="26"/>
+      <c r="K377" s="26"/>
+      <c r="L377" s="26"/>
+      <c r="M377" s="26"/>
+      <c r="N377" s="26"/>
+      <c r="O377" s="26"/>
+      <c r="P377" s="26"/>
+      <c r="Q377" s="26"/>
+      <c r="R377" s="26"/>
+      <c r="S377" s="26"/>
+      <c r="T377" s="26"/>
+      <c r="U377" s="26"/>
+      <c r="V377" s="26"/>
+      <c r="W377" s="26"/>
+      <c r="X377" s="27"/>
     </row>
     <row r="380" spans="2:24">
       <c r="B380" t="s">
@@ -7511,294 +7511,294 @@
     </row>
     <row r="381" spans="2:24" ht="21" thickBot="1"/>
     <row r="382" spans="2:24">
-      <c r="C382" s="17" t="s">
+      <c r="C382" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D382" s="9"/>
-      <c r="E382" s="9"/>
-      <c r="F382" s="9"/>
-      <c r="G382" s="9"/>
-      <c r="H382" s="9"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="9"/>
-      <c r="K382" s="9"/>
-      <c r="L382" s="9"/>
-      <c r="M382" s="9"/>
-      <c r="N382" s="9"/>
-      <c r="O382" s="9"/>
-      <c r="P382" s="9"/>
-      <c r="Q382" s="9"/>
-      <c r="R382" s="9"/>
-      <c r="S382" s="9"/>
-      <c r="T382" s="9"/>
-      <c r="U382" s="9"/>
-      <c r="V382" s="9"/>
-      <c r="W382" s="9"/>
-      <c r="X382" s="10"/>
+      <c r="D382" s="20"/>
+      <c r="E382" s="20"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="20"/>
+      <c r="H382" s="20"/>
+      <c r="I382" s="20"/>
+      <c r="J382" s="20"/>
+      <c r="K382" s="20"/>
+      <c r="L382" s="20"/>
+      <c r="M382" s="20"/>
+      <c r="N382" s="20"/>
+      <c r="O382" s="20"/>
+      <c r="P382" s="20"/>
+      <c r="Q382" s="20"/>
+      <c r="R382" s="20"/>
+      <c r="S382" s="20"/>
+      <c r="T382" s="20"/>
+      <c r="U382" s="20"/>
+      <c r="V382" s="20"/>
+      <c r="W382" s="20"/>
+      <c r="X382" s="21"/>
     </row>
     <row r="383" spans="2:24">
-      <c r="C383" s="11"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="12"/>
-      <c r="G383" s="12"/>
-      <c r="H383" s="12"/>
-      <c r="I383" s="12"/>
-      <c r="J383" s="12"/>
-      <c r="K383" s="12"/>
-      <c r="L383" s="12"/>
-      <c r="M383" s="12"/>
-      <c r="N383" s="12"/>
-      <c r="O383" s="12"/>
-      <c r="P383" s="12"/>
-      <c r="Q383" s="12"/>
-      <c r="R383" s="12"/>
-      <c r="S383" s="12"/>
-      <c r="T383" s="12"/>
-      <c r="U383" s="12"/>
-      <c r="V383" s="12"/>
-      <c r="W383" s="12"/>
-      <c r="X383" s="13"/>
+      <c r="C383" s="22"/>
+      <c r="D383" s="23"/>
+      <c r="E383" s="23"/>
+      <c r="F383" s="23"/>
+      <c r="G383" s="23"/>
+      <c r="H383" s="23"/>
+      <c r="I383" s="23"/>
+      <c r="J383" s="23"/>
+      <c r="K383" s="23"/>
+      <c r="L383" s="23"/>
+      <c r="M383" s="23"/>
+      <c r="N383" s="23"/>
+      <c r="O383" s="23"/>
+      <c r="P383" s="23"/>
+      <c r="Q383" s="23"/>
+      <c r="R383" s="23"/>
+      <c r="S383" s="23"/>
+      <c r="T383" s="23"/>
+      <c r="U383" s="23"/>
+      <c r="V383" s="23"/>
+      <c r="W383" s="23"/>
+      <c r="X383" s="24"/>
     </row>
     <row r="384" spans="2:24">
-      <c r="C384" s="11"/>
-      <c r="D384" s="12"/>
-      <c r="E384" s="12"/>
-      <c r="F384" s="12"/>
-      <c r="G384" s="12"/>
-      <c r="H384" s="12"/>
-      <c r="I384" s="12"/>
-      <c r="J384" s="12"/>
-      <c r="K384" s="12"/>
-      <c r="L384" s="12"/>
-      <c r="M384" s="12"/>
-      <c r="N384" s="12"/>
-      <c r="O384" s="12"/>
-      <c r="P384" s="12"/>
-      <c r="Q384" s="12"/>
-      <c r="R384" s="12"/>
-      <c r="S384" s="12"/>
-      <c r="T384" s="12"/>
-      <c r="U384" s="12"/>
-      <c r="V384" s="12"/>
-      <c r="W384" s="12"/>
-      <c r="X384" s="13"/>
+      <c r="C384" s="22"/>
+      <c r="D384" s="23"/>
+      <c r="E384" s="23"/>
+      <c r="F384" s="23"/>
+      <c r="G384" s="23"/>
+      <c r="H384" s="23"/>
+      <c r="I384" s="23"/>
+      <c r="J384" s="23"/>
+      <c r="K384" s="23"/>
+      <c r="L384" s="23"/>
+      <c r="M384" s="23"/>
+      <c r="N384" s="23"/>
+      <c r="O384" s="23"/>
+      <c r="P384" s="23"/>
+      <c r="Q384" s="23"/>
+      <c r="R384" s="23"/>
+      <c r="S384" s="23"/>
+      <c r="T384" s="23"/>
+      <c r="U384" s="23"/>
+      <c r="V384" s="23"/>
+      <c r="W384" s="23"/>
+      <c r="X384" s="24"/>
     </row>
     <row r="385" spans="3:24">
-      <c r="C385" s="11"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="12"/>
-      <c r="F385" s="12"/>
-      <c r="G385" s="12"/>
-      <c r="H385" s="12"/>
-      <c r="I385" s="12"/>
-      <c r="J385" s="12"/>
-      <c r="K385" s="12"/>
-      <c r="L385" s="12"/>
-      <c r="M385" s="12"/>
-      <c r="N385" s="12"/>
-      <c r="O385" s="12"/>
-      <c r="P385" s="12"/>
-      <c r="Q385" s="12"/>
-      <c r="R385" s="12"/>
-      <c r="S385" s="12"/>
-      <c r="T385" s="12"/>
-      <c r="U385" s="12"/>
-      <c r="V385" s="12"/>
-      <c r="W385" s="12"/>
-      <c r="X385" s="13"/>
+      <c r="C385" s="22"/>
+      <c r="D385" s="23"/>
+      <c r="E385" s="23"/>
+      <c r="F385" s="23"/>
+      <c r="G385" s="23"/>
+      <c r="H385" s="23"/>
+      <c r="I385" s="23"/>
+      <c r="J385" s="23"/>
+      <c r="K385" s="23"/>
+      <c r="L385" s="23"/>
+      <c r="M385" s="23"/>
+      <c r="N385" s="23"/>
+      <c r="O385" s="23"/>
+      <c r="P385" s="23"/>
+      <c r="Q385" s="23"/>
+      <c r="R385" s="23"/>
+      <c r="S385" s="23"/>
+      <c r="T385" s="23"/>
+      <c r="U385" s="23"/>
+      <c r="V385" s="23"/>
+      <c r="W385" s="23"/>
+      <c r="X385" s="24"/>
     </row>
     <row r="386" spans="3:24">
-      <c r="C386" s="11"/>
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="12"/>
-      <c r="G386" s="12"/>
-      <c r="H386" s="12"/>
-      <c r="I386" s="12"/>
-      <c r="J386" s="12"/>
-      <c r="K386" s="12"/>
-      <c r="L386" s="12"/>
-      <c r="M386" s="12"/>
-      <c r="N386" s="12"/>
-      <c r="O386" s="12"/>
-      <c r="P386" s="12"/>
-      <c r="Q386" s="12"/>
-      <c r="R386" s="12"/>
-      <c r="S386" s="12"/>
-      <c r="T386" s="12"/>
-      <c r="U386" s="12"/>
-      <c r="V386" s="12"/>
-      <c r="W386" s="12"/>
-      <c r="X386" s="13"/>
+      <c r="C386" s="22"/>
+      <c r="D386" s="23"/>
+      <c r="E386" s="23"/>
+      <c r="F386" s="23"/>
+      <c r="G386" s="23"/>
+      <c r="H386" s="23"/>
+      <c r="I386" s="23"/>
+      <c r="J386" s="23"/>
+      <c r="K386" s="23"/>
+      <c r="L386" s="23"/>
+      <c r="M386" s="23"/>
+      <c r="N386" s="23"/>
+      <c r="O386" s="23"/>
+      <c r="P386" s="23"/>
+      <c r="Q386" s="23"/>
+      <c r="R386" s="23"/>
+      <c r="S386" s="23"/>
+      <c r="T386" s="23"/>
+      <c r="U386" s="23"/>
+      <c r="V386" s="23"/>
+      <c r="W386" s="23"/>
+      <c r="X386" s="24"/>
     </row>
     <row r="387" spans="3:24">
-      <c r="C387" s="11"/>
-      <c r="D387" s="12"/>
-      <c r="E387" s="12"/>
-      <c r="F387" s="12"/>
-      <c r="G387" s="12"/>
-      <c r="H387" s="12"/>
-      <c r="I387" s="12"/>
-      <c r="J387" s="12"/>
-      <c r="K387" s="12"/>
-      <c r="L387" s="12"/>
-      <c r="M387" s="12"/>
-      <c r="N387" s="12"/>
-      <c r="O387" s="12"/>
-      <c r="P387" s="12"/>
-      <c r="Q387" s="12"/>
-      <c r="R387" s="12"/>
-      <c r="S387" s="12"/>
-      <c r="T387" s="12"/>
-      <c r="U387" s="12"/>
-      <c r="V387" s="12"/>
-      <c r="W387" s="12"/>
-      <c r="X387" s="13"/>
+      <c r="C387" s="22"/>
+      <c r="D387" s="23"/>
+      <c r="E387" s="23"/>
+      <c r="F387" s="23"/>
+      <c r="G387" s="23"/>
+      <c r="H387" s="23"/>
+      <c r="I387" s="23"/>
+      <c r="J387" s="23"/>
+      <c r="K387" s="23"/>
+      <c r="L387" s="23"/>
+      <c r="M387" s="23"/>
+      <c r="N387" s="23"/>
+      <c r="O387" s="23"/>
+      <c r="P387" s="23"/>
+      <c r="Q387" s="23"/>
+      <c r="R387" s="23"/>
+      <c r="S387" s="23"/>
+      <c r="T387" s="23"/>
+      <c r="U387" s="23"/>
+      <c r="V387" s="23"/>
+      <c r="W387" s="23"/>
+      <c r="X387" s="24"/>
     </row>
     <row r="388" spans="3:24">
-      <c r="C388" s="11"/>
-      <c r="D388" s="12"/>
-      <c r="E388" s="12"/>
-      <c r="F388" s="12"/>
-      <c r="G388" s="12"/>
-      <c r="H388" s="12"/>
-      <c r="I388" s="12"/>
-      <c r="J388" s="12"/>
-      <c r="K388" s="12"/>
-      <c r="L388" s="12"/>
-      <c r="M388" s="12"/>
-      <c r="N388" s="12"/>
-      <c r="O388" s="12"/>
-      <c r="P388" s="12"/>
-      <c r="Q388" s="12"/>
-      <c r="R388" s="12"/>
-      <c r="S388" s="12"/>
-      <c r="T388" s="12"/>
-      <c r="U388" s="12"/>
-      <c r="V388" s="12"/>
-      <c r="W388" s="12"/>
-      <c r="X388" s="13"/>
+      <c r="C388" s="22"/>
+      <c r="D388" s="23"/>
+      <c r="E388" s="23"/>
+      <c r="F388" s="23"/>
+      <c r="G388" s="23"/>
+      <c r="H388" s="23"/>
+      <c r="I388" s="23"/>
+      <c r="J388" s="23"/>
+      <c r="K388" s="23"/>
+      <c r="L388" s="23"/>
+      <c r="M388" s="23"/>
+      <c r="N388" s="23"/>
+      <c r="O388" s="23"/>
+      <c r="P388" s="23"/>
+      <c r="Q388" s="23"/>
+      <c r="R388" s="23"/>
+      <c r="S388" s="23"/>
+      <c r="T388" s="23"/>
+      <c r="U388" s="23"/>
+      <c r="V388" s="23"/>
+      <c r="W388" s="23"/>
+      <c r="X388" s="24"/>
     </row>
     <row r="389" spans="3:24">
-      <c r="C389" s="11"/>
-      <c r="D389" s="12"/>
-      <c r="E389" s="12"/>
-      <c r="F389" s="12"/>
-      <c r="G389" s="12"/>
-      <c r="H389" s="12"/>
-      <c r="I389" s="12"/>
-      <c r="J389" s="12"/>
-      <c r="K389" s="12"/>
-      <c r="L389" s="12"/>
-      <c r="M389" s="12"/>
-      <c r="N389" s="12"/>
-      <c r="O389" s="12"/>
-      <c r="P389" s="12"/>
-      <c r="Q389" s="12"/>
-      <c r="R389" s="12"/>
-      <c r="S389" s="12"/>
-      <c r="T389" s="12"/>
-      <c r="U389" s="12"/>
-      <c r="V389" s="12"/>
-      <c r="W389" s="12"/>
-      <c r="X389" s="13"/>
+      <c r="C389" s="22"/>
+      <c r="D389" s="23"/>
+      <c r="E389" s="23"/>
+      <c r="F389" s="23"/>
+      <c r="G389" s="23"/>
+      <c r="H389" s="23"/>
+      <c r="I389" s="23"/>
+      <c r="J389" s="23"/>
+      <c r="K389" s="23"/>
+      <c r="L389" s="23"/>
+      <c r="M389" s="23"/>
+      <c r="N389" s="23"/>
+      <c r="O389" s="23"/>
+      <c r="P389" s="23"/>
+      <c r="Q389" s="23"/>
+      <c r="R389" s="23"/>
+      <c r="S389" s="23"/>
+      <c r="T389" s="23"/>
+      <c r="U389" s="23"/>
+      <c r="V389" s="23"/>
+      <c r="W389" s="23"/>
+      <c r="X389" s="24"/>
     </row>
     <row r="390" spans="3:24">
-      <c r="C390" s="11"/>
-      <c r="D390" s="12"/>
-      <c r="E390" s="12"/>
-      <c r="F390" s="12"/>
-      <c r="G390" s="12"/>
-      <c r="H390" s="12"/>
-      <c r="I390" s="12"/>
-      <c r="J390" s="12"/>
-      <c r="K390" s="12"/>
-      <c r="L390" s="12"/>
-      <c r="M390" s="12"/>
-      <c r="N390" s="12"/>
-      <c r="O390" s="12"/>
-      <c r="P390" s="12"/>
-      <c r="Q390" s="12"/>
-      <c r="R390" s="12"/>
-      <c r="S390" s="12"/>
-      <c r="T390" s="12"/>
-      <c r="U390" s="12"/>
-      <c r="V390" s="12"/>
-      <c r="W390" s="12"/>
-      <c r="X390" s="13"/>
+      <c r="C390" s="22"/>
+      <c r="D390" s="23"/>
+      <c r="E390" s="23"/>
+      <c r="F390" s="23"/>
+      <c r="G390" s="23"/>
+      <c r="H390" s="23"/>
+      <c r="I390" s="23"/>
+      <c r="J390" s="23"/>
+      <c r="K390" s="23"/>
+      <c r="L390" s="23"/>
+      <c r="M390" s="23"/>
+      <c r="N390" s="23"/>
+      <c r="O390" s="23"/>
+      <c r="P390" s="23"/>
+      <c r="Q390" s="23"/>
+      <c r="R390" s="23"/>
+      <c r="S390" s="23"/>
+      <c r="T390" s="23"/>
+      <c r="U390" s="23"/>
+      <c r="V390" s="23"/>
+      <c r="W390" s="23"/>
+      <c r="X390" s="24"/>
     </row>
     <row r="391" spans="3:24">
-      <c r="C391" s="11"/>
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
-      <c r="F391" s="12"/>
-      <c r="G391" s="12"/>
-      <c r="H391" s="12"/>
-      <c r="I391" s="12"/>
-      <c r="J391" s="12"/>
-      <c r="K391" s="12"/>
-      <c r="L391" s="12"/>
-      <c r="M391" s="12"/>
-      <c r="N391" s="12"/>
-      <c r="O391" s="12"/>
-      <c r="P391" s="12"/>
-      <c r="Q391" s="12"/>
-      <c r="R391" s="12"/>
-      <c r="S391" s="12"/>
-      <c r="T391" s="12"/>
-      <c r="U391" s="12"/>
-      <c r="V391" s="12"/>
-      <c r="W391" s="12"/>
-      <c r="X391" s="13"/>
+      <c r="C391" s="22"/>
+      <c r="D391" s="23"/>
+      <c r="E391" s="23"/>
+      <c r="F391" s="23"/>
+      <c r="G391" s="23"/>
+      <c r="H391" s="23"/>
+      <c r="I391" s="23"/>
+      <c r="J391" s="23"/>
+      <c r="K391" s="23"/>
+      <c r="L391" s="23"/>
+      <c r="M391" s="23"/>
+      <c r="N391" s="23"/>
+      <c r="O391" s="23"/>
+      <c r="P391" s="23"/>
+      <c r="Q391" s="23"/>
+      <c r="R391" s="23"/>
+      <c r="S391" s="23"/>
+      <c r="T391" s="23"/>
+      <c r="U391" s="23"/>
+      <c r="V391" s="23"/>
+      <c r="W391" s="23"/>
+      <c r="X391" s="24"/>
     </row>
     <row r="392" spans="3:24">
-      <c r="C392" s="11"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="12"/>
-      <c r="G392" s="12"/>
-      <c r="H392" s="12"/>
-      <c r="I392" s="12"/>
-      <c r="J392" s="12"/>
-      <c r="K392" s="12"/>
-      <c r="L392" s="12"/>
-      <c r="M392" s="12"/>
-      <c r="N392" s="12"/>
-      <c r="O392" s="12"/>
-      <c r="P392" s="12"/>
-      <c r="Q392" s="12"/>
-      <c r="R392" s="12"/>
-      <c r="S392" s="12"/>
-      <c r="T392" s="12"/>
-      <c r="U392" s="12"/>
-      <c r="V392" s="12"/>
-      <c r="W392" s="12"/>
-      <c r="X392" s="13"/>
+      <c r="C392" s="22"/>
+      <c r="D392" s="23"/>
+      <c r="E392" s="23"/>
+      <c r="F392" s="23"/>
+      <c r="G392" s="23"/>
+      <c r="H392" s="23"/>
+      <c r="I392" s="23"/>
+      <c r="J392" s="23"/>
+      <c r="K392" s="23"/>
+      <c r="L392" s="23"/>
+      <c r="M392" s="23"/>
+      <c r="N392" s="23"/>
+      <c r="O392" s="23"/>
+      <c r="P392" s="23"/>
+      <c r="Q392" s="23"/>
+      <c r="R392" s="23"/>
+      <c r="S392" s="23"/>
+      <c r="T392" s="23"/>
+      <c r="U392" s="23"/>
+      <c r="V392" s="23"/>
+      <c r="W392" s="23"/>
+      <c r="X392" s="24"/>
     </row>
     <row r="393" spans="3:24" ht="21" thickBot="1">
-      <c r="C393" s="14"/>
-      <c r="D393" s="15"/>
-      <c r="E393" s="15"/>
-      <c r="F393" s="15"/>
-      <c r="G393" s="15"/>
-      <c r="H393" s="15"/>
-      <c r="I393" s="15"/>
-      <c r="J393" s="15"/>
-      <c r="K393" s="15"/>
-      <c r="L393" s="15"/>
-      <c r="M393" s="15"/>
-      <c r="N393" s="15"/>
-      <c r="O393" s="15"/>
-      <c r="P393" s="15"/>
-      <c r="Q393" s="15"/>
-      <c r="R393" s="15"/>
-      <c r="S393" s="15"/>
-      <c r="T393" s="15"/>
-      <c r="U393" s="15"/>
-      <c r="V393" s="15"/>
-      <c r="W393" s="15"/>
-      <c r="X393" s="16"/>
+      <c r="C393" s="25"/>
+      <c r="D393" s="26"/>
+      <c r="E393" s="26"/>
+      <c r="F393" s="26"/>
+      <c r="G393" s="26"/>
+      <c r="H393" s="26"/>
+      <c r="I393" s="26"/>
+      <c r="J393" s="26"/>
+      <c r="K393" s="26"/>
+      <c r="L393" s="26"/>
+      <c r="M393" s="26"/>
+      <c r="N393" s="26"/>
+      <c r="O393" s="26"/>
+      <c r="P393" s="26"/>
+      <c r="Q393" s="26"/>
+      <c r="R393" s="26"/>
+      <c r="S393" s="26"/>
+      <c r="T393" s="26"/>
+      <c r="U393" s="26"/>
+      <c r="V393" s="26"/>
+      <c r="W393" s="26"/>
+      <c r="X393" s="27"/>
     </row>
     <row r="428" spans="1:3" s="4" customFormat="1"/>
     <row r="431" spans="1:3">
@@ -7816,369 +7816,369 @@
     </row>
     <row r="434" spans="3:24" ht="21" thickBot="1"/>
     <row r="435" spans="3:24">
-      <c r="C435" s="17" t="s">
+      <c r="C435" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D435" s="9"/>
-      <c r="E435" s="9"/>
-      <c r="F435" s="9"/>
-      <c r="G435" s="9"/>
-      <c r="H435" s="9"/>
-      <c r="I435" s="9"/>
-      <c r="J435" s="9"/>
-      <c r="K435" s="9"/>
-      <c r="L435" s="9"/>
-      <c r="M435" s="9"/>
-      <c r="N435" s="9"/>
-      <c r="O435" s="9"/>
-      <c r="P435" s="9"/>
-      <c r="Q435" s="9"/>
-      <c r="R435" s="9"/>
-      <c r="S435" s="9"/>
-      <c r="T435" s="9"/>
-      <c r="U435" s="9"/>
-      <c r="V435" s="9"/>
-      <c r="W435" s="9"/>
-      <c r="X435" s="10"/>
+      <c r="D435" s="20"/>
+      <c r="E435" s="20"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="20"/>
+      <c r="H435" s="20"/>
+      <c r="I435" s="20"/>
+      <c r="J435" s="20"/>
+      <c r="K435" s="20"/>
+      <c r="L435" s="20"/>
+      <c r="M435" s="20"/>
+      <c r="N435" s="20"/>
+      <c r="O435" s="20"/>
+      <c r="P435" s="20"/>
+      <c r="Q435" s="20"/>
+      <c r="R435" s="20"/>
+      <c r="S435" s="20"/>
+      <c r="T435" s="20"/>
+      <c r="U435" s="20"/>
+      <c r="V435" s="20"/>
+      <c r="W435" s="20"/>
+      <c r="X435" s="21"/>
     </row>
     <row r="436" spans="3:24">
-      <c r="C436" s="11"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
-      <c r="F436" s="12"/>
-      <c r="G436" s="12"/>
-      <c r="H436" s="12"/>
-      <c r="I436" s="12"/>
-      <c r="J436" s="12"/>
-      <c r="K436" s="12"/>
-      <c r="L436" s="12"/>
-      <c r="M436" s="12"/>
-      <c r="N436" s="12"/>
-      <c r="O436" s="12"/>
-      <c r="P436" s="12"/>
-      <c r="Q436" s="12"/>
-      <c r="R436" s="12"/>
-      <c r="S436" s="12"/>
-      <c r="T436" s="12"/>
-      <c r="U436" s="12"/>
-      <c r="V436" s="12"/>
-      <c r="W436" s="12"/>
-      <c r="X436" s="13"/>
+      <c r="C436" s="22"/>
+      <c r="D436" s="23"/>
+      <c r="E436" s="23"/>
+      <c r="F436" s="23"/>
+      <c r="G436" s="23"/>
+      <c r="H436" s="23"/>
+      <c r="I436" s="23"/>
+      <c r="J436" s="23"/>
+      <c r="K436" s="23"/>
+      <c r="L436" s="23"/>
+      <c r="M436" s="23"/>
+      <c r="N436" s="23"/>
+      <c r="O436" s="23"/>
+      <c r="P436" s="23"/>
+      <c r="Q436" s="23"/>
+      <c r="R436" s="23"/>
+      <c r="S436" s="23"/>
+      <c r="T436" s="23"/>
+      <c r="U436" s="23"/>
+      <c r="V436" s="23"/>
+      <c r="W436" s="23"/>
+      <c r="X436" s="24"/>
     </row>
     <row r="437" spans="3:24">
-      <c r="C437" s="11"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
-      <c r="F437" s="12"/>
-      <c r="G437" s="12"/>
-      <c r="H437" s="12"/>
-      <c r="I437" s="12"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
-      <c r="L437" s="12"/>
-      <c r="M437" s="12"/>
-      <c r="N437" s="12"/>
-      <c r="O437" s="12"/>
-      <c r="P437" s="12"/>
-      <c r="Q437" s="12"/>
-      <c r="R437" s="12"/>
-      <c r="S437" s="12"/>
-      <c r="T437" s="12"/>
-      <c r="U437" s="12"/>
-      <c r="V437" s="12"/>
-      <c r="W437" s="12"/>
-      <c r="X437" s="13"/>
+      <c r="C437" s="22"/>
+      <c r="D437" s="23"/>
+      <c r="E437" s="23"/>
+      <c r="F437" s="23"/>
+      <c r="G437" s="23"/>
+      <c r="H437" s="23"/>
+      <c r="I437" s="23"/>
+      <c r="J437" s="23"/>
+      <c r="K437" s="23"/>
+      <c r="L437" s="23"/>
+      <c r="M437" s="23"/>
+      <c r="N437" s="23"/>
+      <c r="O437" s="23"/>
+      <c r="P437" s="23"/>
+      <c r="Q437" s="23"/>
+      <c r="R437" s="23"/>
+      <c r="S437" s="23"/>
+      <c r="T437" s="23"/>
+      <c r="U437" s="23"/>
+      <c r="V437" s="23"/>
+      <c r="W437" s="23"/>
+      <c r="X437" s="24"/>
     </row>
     <row r="438" spans="3:24">
-      <c r="C438" s="11"/>
-      <c r="D438" s="12"/>
-      <c r="E438" s="12"/>
-      <c r="F438" s="12"/>
-      <c r="G438" s="12"/>
-      <c r="H438" s="12"/>
-      <c r="I438" s="12"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="12"/>
-      <c r="L438" s="12"/>
-      <c r="M438" s="12"/>
-      <c r="N438" s="12"/>
-      <c r="O438" s="12"/>
-      <c r="P438" s="12"/>
-      <c r="Q438" s="12"/>
-      <c r="R438" s="12"/>
-      <c r="S438" s="12"/>
-      <c r="T438" s="12"/>
-      <c r="U438" s="12"/>
-      <c r="V438" s="12"/>
-      <c r="W438" s="12"/>
-      <c r="X438" s="13"/>
+      <c r="C438" s="22"/>
+      <c r="D438" s="23"/>
+      <c r="E438" s="23"/>
+      <c r="F438" s="23"/>
+      <c r="G438" s="23"/>
+      <c r="H438" s="23"/>
+      <c r="I438" s="23"/>
+      <c r="J438" s="23"/>
+      <c r="K438" s="23"/>
+      <c r="L438" s="23"/>
+      <c r="M438" s="23"/>
+      <c r="N438" s="23"/>
+      <c r="O438" s="23"/>
+      <c r="P438" s="23"/>
+      <c r="Q438" s="23"/>
+      <c r="R438" s="23"/>
+      <c r="S438" s="23"/>
+      <c r="T438" s="23"/>
+      <c r="U438" s="23"/>
+      <c r="V438" s="23"/>
+      <c r="W438" s="23"/>
+      <c r="X438" s="24"/>
     </row>
     <row r="439" spans="3:24">
-      <c r="C439" s="11"/>
-      <c r="D439" s="12"/>
-      <c r="E439" s="12"/>
-      <c r="F439" s="12"/>
-      <c r="G439" s="12"/>
-      <c r="H439" s="12"/>
-      <c r="I439" s="12"/>
-      <c r="J439" s="12"/>
-      <c r="K439" s="12"/>
-      <c r="L439" s="12"/>
-      <c r="M439" s="12"/>
-      <c r="N439" s="12"/>
-      <c r="O439" s="12"/>
-      <c r="P439" s="12"/>
-      <c r="Q439" s="12"/>
-      <c r="R439" s="12"/>
-      <c r="S439" s="12"/>
-      <c r="T439" s="12"/>
-      <c r="U439" s="12"/>
-      <c r="V439" s="12"/>
-      <c r="W439" s="12"/>
-      <c r="X439" s="13"/>
+      <c r="C439" s="22"/>
+      <c r="D439" s="23"/>
+      <c r="E439" s="23"/>
+      <c r="F439" s="23"/>
+      <c r="G439" s="23"/>
+      <c r="H439" s="23"/>
+      <c r="I439" s="23"/>
+      <c r="J439" s="23"/>
+      <c r="K439" s="23"/>
+      <c r="L439" s="23"/>
+      <c r="M439" s="23"/>
+      <c r="N439" s="23"/>
+      <c r="O439" s="23"/>
+      <c r="P439" s="23"/>
+      <c r="Q439" s="23"/>
+      <c r="R439" s="23"/>
+      <c r="S439" s="23"/>
+      <c r="T439" s="23"/>
+      <c r="U439" s="23"/>
+      <c r="V439" s="23"/>
+      <c r="W439" s="23"/>
+      <c r="X439" s="24"/>
     </row>
     <row r="440" spans="3:24">
-      <c r="C440" s="11"/>
-      <c r="D440" s="12"/>
-      <c r="E440" s="12"/>
-      <c r="F440" s="12"/>
-      <c r="G440" s="12"/>
-      <c r="H440" s="12"/>
-      <c r="I440" s="12"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="12"/>
-      <c r="L440" s="12"/>
-      <c r="M440" s="12"/>
-      <c r="N440" s="12"/>
-      <c r="O440" s="12"/>
-      <c r="P440" s="12"/>
-      <c r="Q440" s="12"/>
-      <c r="R440" s="12"/>
-      <c r="S440" s="12"/>
-      <c r="T440" s="12"/>
-      <c r="U440" s="12"/>
-      <c r="V440" s="12"/>
-      <c r="W440" s="12"/>
-      <c r="X440" s="13"/>
+      <c r="C440" s="22"/>
+      <c r="D440" s="23"/>
+      <c r="E440" s="23"/>
+      <c r="F440" s="23"/>
+      <c r="G440" s="23"/>
+      <c r="H440" s="23"/>
+      <c r="I440" s="23"/>
+      <c r="J440" s="23"/>
+      <c r="K440" s="23"/>
+      <c r="L440" s="23"/>
+      <c r="M440" s="23"/>
+      <c r="N440" s="23"/>
+      <c r="O440" s="23"/>
+      <c r="P440" s="23"/>
+      <c r="Q440" s="23"/>
+      <c r="R440" s="23"/>
+      <c r="S440" s="23"/>
+      <c r="T440" s="23"/>
+      <c r="U440" s="23"/>
+      <c r="V440" s="23"/>
+      <c r="W440" s="23"/>
+      <c r="X440" s="24"/>
     </row>
     <row r="441" spans="3:24">
-      <c r="C441" s="11"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
-      <c r="F441" s="12"/>
-      <c r="G441" s="12"/>
-      <c r="H441" s="12"/>
-      <c r="I441" s="12"/>
-      <c r="J441" s="12"/>
-      <c r="K441" s="12"/>
-      <c r="L441" s="12"/>
-      <c r="M441" s="12"/>
-      <c r="N441" s="12"/>
-      <c r="O441" s="12"/>
-      <c r="P441" s="12"/>
-      <c r="Q441" s="12"/>
-      <c r="R441" s="12"/>
-      <c r="S441" s="12"/>
-      <c r="T441" s="12"/>
-      <c r="U441" s="12"/>
-      <c r="V441" s="12"/>
-      <c r="W441" s="12"/>
-      <c r="X441" s="13"/>
+      <c r="C441" s="22"/>
+      <c r="D441" s="23"/>
+      <c r="E441" s="23"/>
+      <c r="F441" s="23"/>
+      <c r="G441" s="23"/>
+      <c r="H441" s="23"/>
+      <c r="I441" s="23"/>
+      <c r="J441" s="23"/>
+      <c r="K441" s="23"/>
+      <c r="L441" s="23"/>
+      <c r="M441" s="23"/>
+      <c r="N441" s="23"/>
+      <c r="O441" s="23"/>
+      <c r="P441" s="23"/>
+      <c r="Q441" s="23"/>
+      <c r="R441" s="23"/>
+      <c r="S441" s="23"/>
+      <c r="T441" s="23"/>
+      <c r="U441" s="23"/>
+      <c r="V441" s="23"/>
+      <c r="W441" s="23"/>
+      <c r="X441" s="24"/>
     </row>
     <row r="442" spans="3:24">
-      <c r="C442" s="11"/>
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
-      <c r="F442" s="12"/>
-      <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
-      <c r="I442" s="12"/>
-      <c r="J442" s="12"/>
-      <c r="K442" s="12"/>
-      <c r="L442" s="12"/>
-      <c r="M442" s="12"/>
-      <c r="N442" s="12"/>
-      <c r="O442" s="12"/>
-      <c r="P442" s="12"/>
-      <c r="Q442" s="12"/>
-      <c r="R442" s="12"/>
-      <c r="S442" s="12"/>
-      <c r="T442" s="12"/>
-      <c r="U442" s="12"/>
-      <c r="V442" s="12"/>
-      <c r="W442" s="12"/>
-      <c r="X442" s="13"/>
+      <c r="C442" s="22"/>
+      <c r="D442" s="23"/>
+      <c r="E442" s="23"/>
+      <c r="F442" s="23"/>
+      <c r="G442" s="23"/>
+      <c r="H442" s="23"/>
+      <c r="I442" s="23"/>
+      <c r="J442" s="23"/>
+      <c r="K442" s="23"/>
+      <c r="L442" s="23"/>
+      <c r="M442" s="23"/>
+      <c r="N442" s="23"/>
+      <c r="O442" s="23"/>
+      <c r="P442" s="23"/>
+      <c r="Q442" s="23"/>
+      <c r="R442" s="23"/>
+      <c r="S442" s="23"/>
+      <c r="T442" s="23"/>
+      <c r="U442" s="23"/>
+      <c r="V442" s="23"/>
+      <c r="W442" s="23"/>
+      <c r="X442" s="24"/>
     </row>
     <row r="443" spans="3:24">
-      <c r="C443" s="11"/>
-      <c r="D443" s="12"/>
-      <c r="E443" s="12"/>
-      <c r="F443" s="12"/>
-      <c r="G443" s="12"/>
-      <c r="H443" s="12"/>
-      <c r="I443" s="12"/>
-      <c r="J443" s="12"/>
-      <c r="K443" s="12"/>
-      <c r="L443" s="12"/>
-      <c r="M443" s="12"/>
-      <c r="N443" s="12"/>
-      <c r="O443" s="12"/>
-      <c r="P443" s="12"/>
-      <c r="Q443" s="12"/>
-      <c r="R443" s="12"/>
-      <c r="S443" s="12"/>
-      <c r="T443" s="12"/>
-      <c r="U443" s="12"/>
-      <c r="V443" s="12"/>
-      <c r="W443" s="12"/>
-      <c r="X443" s="13"/>
+      <c r="C443" s="22"/>
+      <c r="D443" s="23"/>
+      <c r="E443" s="23"/>
+      <c r="F443" s="23"/>
+      <c r="G443" s="23"/>
+      <c r="H443" s="23"/>
+      <c r="I443" s="23"/>
+      <c r="J443" s="23"/>
+      <c r="K443" s="23"/>
+      <c r="L443" s="23"/>
+      <c r="M443" s="23"/>
+      <c r="N443" s="23"/>
+      <c r="O443" s="23"/>
+      <c r="P443" s="23"/>
+      <c r="Q443" s="23"/>
+      <c r="R443" s="23"/>
+      <c r="S443" s="23"/>
+      <c r="T443" s="23"/>
+      <c r="U443" s="23"/>
+      <c r="V443" s="23"/>
+      <c r="W443" s="23"/>
+      <c r="X443" s="24"/>
     </row>
     <row r="444" spans="3:24">
-      <c r="C444" s="11"/>
-      <c r="D444" s="12"/>
-      <c r="E444" s="12"/>
-      <c r="F444" s="12"/>
-      <c r="G444" s="12"/>
-      <c r="H444" s="12"/>
-      <c r="I444" s="12"/>
-      <c r="J444" s="12"/>
-      <c r="K444" s="12"/>
-      <c r="L444" s="12"/>
-      <c r="M444" s="12"/>
-      <c r="N444" s="12"/>
-      <c r="O444" s="12"/>
-      <c r="P444" s="12"/>
-      <c r="Q444" s="12"/>
-      <c r="R444" s="12"/>
-      <c r="S444" s="12"/>
-      <c r="T444" s="12"/>
-      <c r="U444" s="12"/>
-      <c r="V444" s="12"/>
-      <c r="W444" s="12"/>
-      <c r="X444" s="13"/>
+      <c r="C444" s="22"/>
+      <c r="D444" s="23"/>
+      <c r="E444" s="23"/>
+      <c r="F444" s="23"/>
+      <c r="G444" s="23"/>
+      <c r="H444" s="23"/>
+      <c r="I444" s="23"/>
+      <c r="J444" s="23"/>
+      <c r="K444" s="23"/>
+      <c r="L444" s="23"/>
+      <c r="M444" s="23"/>
+      <c r="N444" s="23"/>
+      <c r="O444" s="23"/>
+      <c r="P444" s="23"/>
+      <c r="Q444" s="23"/>
+      <c r="R444" s="23"/>
+      <c r="S444" s="23"/>
+      <c r="T444" s="23"/>
+      <c r="U444" s="23"/>
+      <c r="V444" s="23"/>
+      <c r="W444" s="23"/>
+      <c r="X444" s="24"/>
     </row>
     <row r="445" spans="3:24">
-      <c r="C445" s="11"/>
-      <c r="D445" s="12"/>
-      <c r="E445" s="12"/>
-      <c r="F445" s="12"/>
-      <c r="G445" s="12"/>
-      <c r="H445" s="12"/>
-      <c r="I445" s="12"/>
-      <c r="J445" s="12"/>
-      <c r="K445" s="12"/>
-      <c r="L445" s="12"/>
-      <c r="M445" s="12"/>
-      <c r="N445" s="12"/>
-      <c r="O445" s="12"/>
-      <c r="P445" s="12"/>
-      <c r="Q445" s="12"/>
-      <c r="R445" s="12"/>
-      <c r="S445" s="12"/>
-      <c r="T445" s="12"/>
-      <c r="U445" s="12"/>
-      <c r="V445" s="12"/>
-      <c r="W445" s="12"/>
-      <c r="X445" s="13"/>
+      <c r="C445" s="22"/>
+      <c r="D445" s="23"/>
+      <c r="E445" s="23"/>
+      <c r="F445" s="23"/>
+      <c r="G445" s="23"/>
+      <c r="H445" s="23"/>
+      <c r="I445" s="23"/>
+      <c r="J445" s="23"/>
+      <c r="K445" s="23"/>
+      <c r="L445" s="23"/>
+      <c r="M445" s="23"/>
+      <c r="N445" s="23"/>
+      <c r="O445" s="23"/>
+      <c r="P445" s="23"/>
+      <c r="Q445" s="23"/>
+      <c r="R445" s="23"/>
+      <c r="S445" s="23"/>
+      <c r="T445" s="23"/>
+      <c r="U445" s="23"/>
+      <c r="V445" s="23"/>
+      <c r="W445" s="23"/>
+      <c r="X445" s="24"/>
     </row>
     <row r="446" spans="3:24">
-      <c r="C446" s="11"/>
-      <c r="D446" s="12"/>
-      <c r="E446" s="12"/>
-      <c r="F446" s="12"/>
-      <c r="G446" s="12"/>
-      <c r="H446" s="12"/>
-      <c r="I446" s="12"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="12"/>
-      <c r="L446" s="12"/>
-      <c r="M446" s="12"/>
-      <c r="N446" s="12"/>
-      <c r="O446" s="12"/>
-      <c r="P446" s="12"/>
-      <c r="Q446" s="12"/>
-      <c r="R446" s="12"/>
-      <c r="S446" s="12"/>
-      <c r="T446" s="12"/>
-      <c r="U446" s="12"/>
-      <c r="V446" s="12"/>
-      <c r="W446" s="12"/>
-      <c r="X446" s="13"/>
+      <c r="C446" s="22"/>
+      <c r="D446" s="23"/>
+      <c r="E446" s="23"/>
+      <c r="F446" s="23"/>
+      <c r="G446" s="23"/>
+      <c r="H446" s="23"/>
+      <c r="I446" s="23"/>
+      <c r="J446" s="23"/>
+      <c r="K446" s="23"/>
+      <c r="L446" s="23"/>
+      <c r="M446" s="23"/>
+      <c r="N446" s="23"/>
+      <c r="O446" s="23"/>
+      <c r="P446" s="23"/>
+      <c r="Q446" s="23"/>
+      <c r="R446" s="23"/>
+      <c r="S446" s="23"/>
+      <c r="T446" s="23"/>
+      <c r="U446" s="23"/>
+      <c r="V446" s="23"/>
+      <c r="W446" s="23"/>
+      <c r="X446" s="24"/>
     </row>
     <row r="447" spans="3:24">
-      <c r="C447" s="11"/>
-      <c r="D447" s="12"/>
-      <c r="E447" s="12"/>
-      <c r="F447" s="12"/>
-      <c r="G447" s="12"/>
-      <c r="H447" s="12"/>
-      <c r="I447" s="12"/>
-      <c r="J447" s="12"/>
-      <c r="K447" s="12"/>
-      <c r="L447" s="12"/>
-      <c r="M447" s="12"/>
-      <c r="N447" s="12"/>
-      <c r="O447" s="12"/>
-      <c r="P447" s="12"/>
-      <c r="Q447" s="12"/>
-      <c r="R447" s="12"/>
-      <c r="S447" s="12"/>
-      <c r="T447" s="12"/>
-      <c r="U447" s="12"/>
-      <c r="V447" s="12"/>
-      <c r="W447" s="12"/>
-      <c r="X447" s="13"/>
+      <c r="C447" s="22"/>
+      <c r="D447" s="23"/>
+      <c r="E447" s="23"/>
+      <c r="F447" s="23"/>
+      <c r="G447" s="23"/>
+      <c r="H447" s="23"/>
+      <c r="I447" s="23"/>
+      <c r="J447" s="23"/>
+      <c r="K447" s="23"/>
+      <c r="L447" s="23"/>
+      <c r="M447" s="23"/>
+      <c r="N447" s="23"/>
+      <c r="O447" s="23"/>
+      <c r="P447" s="23"/>
+      <c r="Q447" s="23"/>
+      <c r="R447" s="23"/>
+      <c r="S447" s="23"/>
+      <c r="T447" s="23"/>
+      <c r="U447" s="23"/>
+      <c r="V447" s="23"/>
+      <c r="W447" s="23"/>
+      <c r="X447" s="24"/>
     </row>
     <row r="448" spans="3:24">
-      <c r="C448" s="11"/>
-      <c r="D448" s="12"/>
-      <c r="E448" s="12"/>
-      <c r="F448" s="12"/>
-      <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
-      <c r="I448" s="12"/>
-      <c r="J448" s="12"/>
-      <c r="K448" s="12"/>
-      <c r="L448" s="12"/>
-      <c r="M448" s="12"/>
-      <c r="N448" s="12"/>
-      <c r="O448" s="12"/>
-      <c r="P448" s="12"/>
-      <c r="Q448" s="12"/>
-      <c r="R448" s="12"/>
-      <c r="S448" s="12"/>
-      <c r="T448" s="12"/>
-      <c r="U448" s="12"/>
-      <c r="V448" s="12"/>
-      <c r="W448" s="12"/>
-      <c r="X448" s="13"/>
+      <c r="C448" s="22"/>
+      <c r="D448" s="23"/>
+      <c r="E448" s="23"/>
+      <c r="F448" s="23"/>
+      <c r="G448" s="23"/>
+      <c r="H448" s="23"/>
+      <c r="I448" s="23"/>
+      <c r="J448" s="23"/>
+      <c r="K448" s="23"/>
+      <c r="L448" s="23"/>
+      <c r="M448" s="23"/>
+      <c r="N448" s="23"/>
+      <c r="O448" s="23"/>
+      <c r="P448" s="23"/>
+      <c r="Q448" s="23"/>
+      <c r="R448" s="23"/>
+      <c r="S448" s="23"/>
+      <c r="T448" s="23"/>
+      <c r="U448" s="23"/>
+      <c r="V448" s="23"/>
+      <c r="W448" s="23"/>
+      <c r="X448" s="24"/>
     </row>
     <row r="449" spans="3:24" ht="21" thickBot="1">
-      <c r="C449" s="14"/>
-      <c r="D449" s="15"/>
-      <c r="E449" s="15"/>
-      <c r="F449" s="15"/>
-      <c r="G449" s="15"/>
-      <c r="H449" s="15"/>
-      <c r="I449" s="15"/>
-      <c r="J449" s="15"/>
-      <c r="K449" s="15"/>
-      <c r="L449" s="15"/>
-      <c r="M449" s="15"/>
-      <c r="N449" s="15"/>
-      <c r="O449" s="15"/>
-      <c r="P449" s="15"/>
-      <c r="Q449" s="15"/>
-      <c r="R449" s="15"/>
-      <c r="S449" s="15"/>
-      <c r="T449" s="15"/>
-      <c r="U449" s="15"/>
-      <c r="V449" s="15"/>
-      <c r="W449" s="15"/>
-      <c r="X449" s="16"/>
+      <c r="C449" s="25"/>
+      <c r="D449" s="26"/>
+      <c r="E449" s="26"/>
+      <c r="F449" s="26"/>
+      <c r="G449" s="26"/>
+      <c r="H449" s="26"/>
+      <c r="I449" s="26"/>
+      <c r="J449" s="26"/>
+      <c r="K449" s="26"/>
+      <c r="L449" s="26"/>
+      <c r="M449" s="26"/>
+      <c r="N449" s="26"/>
+      <c r="O449" s="26"/>
+      <c r="P449" s="26"/>
+      <c r="Q449" s="26"/>
+      <c r="R449" s="26"/>
+      <c r="S449" s="26"/>
+      <c r="T449" s="26"/>
+      <c r="U449" s="26"/>
+      <c r="V449" s="26"/>
+      <c r="W449" s="26"/>
+      <c r="X449" s="27"/>
     </row>
     <row r="452" spans="3:24">
-      <c r="C452" s="20" t="s">
+      <c r="C452" s="11" t="s">
         <v>119</v>
       </c>
       <c r="K452" s="3" t="s">
